--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
@@ -184,7 +184,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -303,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -525,295 +525,345 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,1045 +1177,1064 @@
     <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="77"/>
+      <c r="L5" s="76" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="75"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="L6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
         <v>612</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="69">
         <v>44032</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="7">
         <v>12</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="8">
         <v>455000</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="8">
         <f t="shared" ref="I7:I23" si="0">G7*H7</f>
         <v>5460000</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18">
+      <c r="J7" s="8"/>
+      <c r="K7" s="9">
         <v>0.5</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="8">
         <f t="shared" ref="L7:L13" si="1">I7*(1-K7)-J7</f>
         <v>2730000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22" t="s">
+    <row r="8" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="11">
         <v>12</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="12">
         <v>465000</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="12">
         <f t="shared" si="0"/>
         <v>5580000</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24">
+      <c r="J8" s="12"/>
+      <c r="K8" s="13">
         <v>0.5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
         <v>2790000</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25" t="s">
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="27" t="s">
+      <c r="S8" s="93"/>
+      <c r="T8" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29" t="s">
+      <c r="U8" s="95"/>
+      <c r="V8" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="29" t="s">
+      <c r="W8" s="96" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22" t="s">
+    <row r="9" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="11">
         <v>12</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="12">
         <v>475000</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="12">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24">
+      <c r="J9" s="12"/>
+      <c r="K9" s="13">
         <v>0.5</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="15">
         <v>44040</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="16">
         <v>5000000</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="17">
         <v>0.12</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="16">
         <f>S9*12%</f>
         <v>600000</v>
       </c>
-      <c r="V9" s="35">
-        <f>200000000-S9-S10-S11-S12-S13-S14</f>
-        <v>117000000</v>
-      </c>
-      <c r="W9" s="35">
+      <c r="V9" s="89">
+        <f>200000000-S9-S10-S11-S12-S13-S14-S15-S16</f>
+        <v>112000000</v>
+      </c>
+      <c r="W9" s="89">
         <f>V9*12%</f>
-        <v>14040000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22" t="s">
+        <v>13440000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="11">
         <v>12</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="12">
         <v>485000</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24">
+      <c r="J10" s="12"/>
+      <c r="K10" s="13">
         <v>0.5</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="12">
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="38">
+      <c r="P10" s="97"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="18">
         <v>44040</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="19">
         <v>10000000</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="87">
         <v>0.12</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="19">
         <f t="shared" ref="U10:U17" si="2">S10*12%</f>
         <v>1200000</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-    </row>
-    <row r="11" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22" t="s">
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+    </row>
+    <row r="11" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="11">
         <v>10</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="12">
         <v>550000</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>5500000</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24">
+      <c r="J11" s="12"/>
+      <c r="K11" s="13">
         <v>0.5</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38">
+      <c r="P11" s="97"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="18">
         <v>44049</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="19">
         <v>30000000</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="87">
         <v>0.12</v>
       </c>
-      <c r="U11" s="39">
+      <c r="U11" s="19">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-    </row>
-    <row r="12" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22" t="s">
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+    </row>
+    <row r="12" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="11">
         <v>12</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="12">
         <v>455000</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24">
+      <c r="J12" s="12"/>
+      <c r="K12" s="13">
         <v>0.5</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="38">
+      <c r="P12" s="97"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="18">
         <v>44054</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="19">
         <v>20000000</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="87">
         <v>0.12</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="19">
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-    </row>
-    <row r="13" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="43" t="s">
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+    </row>
+    <row r="13" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="20">
         <v>12</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="21">
         <v>455000</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="21">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45">
+      <c r="J13" s="21"/>
+      <c r="K13" s="22">
         <v>0.5</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="21">
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38">
+      <c r="P13" s="97"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="18">
         <v>44060</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="19">
         <v>8000000</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="87">
         <v>0.12</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="19">
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-    </row>
-    <row r="14" spans="1:23" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+    </row>
+    <row r="14" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66">
         <v>762</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="69">
         <v>44063</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="8">
         <v>225000</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>1125000</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18">
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
         <v>0.5</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="8">
         <f t="shared" ref="L14:L23" si="3">I14*(1-K14)</f>
         <v>562500</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="46">
+      <c r="P14" s="97"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="18">
         <v>44068</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="19">
         <v>10000000</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="87">
         <v>0.12</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="19">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-    </row>
-    <row r="15" spans="1:23" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22" t="s">
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+    </row>
+    <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="11">
         <v>10</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="12">
         <v>455000</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>4550000</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24">
+      <c r="J15" s="12"/>
+      <c r="K15" s="13">
         <v>0.5</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="12">
         <f t="shared" si="3"/>
         <v>2275000</v>
       </c>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="52">
-        <f>SUM(S9:S14)</f>
-        <v>83000000</v>
-      </c>
-      <c r="T15" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" s="54">
-        <f>SUM(U9:U14)</f>
-        <v>9960000</v>
-      </c>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-    </row>
-    <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22" t="s">
+      <c r="P15" s="97"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="18">
+        <v>44077</v>
+      </c>
+      <c r="S15" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="T15" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+    </row>
+    <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="11">
         <v>5</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="12">
         <v>465000</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>2325000</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24">
+      <c r="J16" s="12"/>
+      <c r="K16" s="13">
         <v>0.5</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="12">
         <f t="shared" si="3"/>
         <v>1162500</v>
       </c>
-      <c r="P16" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="33">
-        <v>100000000</v>
-      </c>
-      <c r="T16" s="34">
+      <c r="P16" s="97"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="23">
+        <v>44085</v>
+      </c>
+      <c r="S16" s="24">
+        <v>3000000</v>
+      </c>
+      <c r="T16" s="88">
         <v>0.12</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="24">
         <f t="shared" si="2"/>
-        <v>12000000</v>
-      </c>
-      <c r="V16" s="35">
-        <f>300000000-S16-S17</f>
-        <v>120000000</v>
-      </c>
-      <c r="W16" s="35">
-        <f>V16*12%</f>
-        <v>14400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43" t="s">
+        <v>360000</v>
+      </c>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+    </row>
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="20">
         <v>5</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="21">
         <v>455000</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>2275000</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45">
+      <c r="J17" s="21"/>
+      <c r="K17" s="22">
         <v>0.5</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="21">
         <f t="shared" si="3"/>
         <v>1137500</v>
       </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="38">
-        <v>44064</v>
-      </c>
-      <c r="S17" s="39">
-        <v>80000000</v>
-      </c>
-      <c r="T17" s="34">
-        <v>0.12</v>
-      </c>
-      <c r="U17" s="39">
-        <f t="shared" si="2"/>
-        <v>9600000</v>
-      </c>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-    </row>
-    <row r="18" spans="1:26" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="P17" s="97"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="85">
+        <f>SUM(S9:S16)</f>
+        <v>88000000</v>
+      </c>
+      <c r="T17" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="27">
+        <f>SUM(U9:U16)</f>
+        <v>10560000</v>
+      </c>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+    </row>
+    <row r="18" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66">
         <v>769</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="69">
         <v>44068</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="7">
         <v>12</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="8">
         <v>225000</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>2700000</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18">
+      <c r="J18" s="8"/>
+      <c r="K18" s="9">
         <v>0.5</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="8">
         <f t="shared" si="3"/>
         <v>1350000</v>
       </c>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="52">
-        <f>SUM(S16:S17)</f>
-        <v>180000000</v>
-      </c>
-      <c r="T18" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="54">
-        <f>SUM(U16:U17)</f>
-        <v>21600000</v>
-      </c>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-    </row>
-    <row r="19" spans="1:26" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="22" t="s">
+      <c r="P18" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="16">
+        <v>100000000</v>
+      </c>
+      <c r="T18" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="U18" s="16">
+        <f>S18*12%</f>
+        <v>12000000</v>
+      </c>
+      <c r="V18" s="89">
+        <f>300000000-S18-S19-S20</f>
+        <v>115000000</v>
+      </c>
+      <c r="W18" s="89">
+        <f>V18*12%</f>
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="11">
         <v>12</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="12">
         <v>455000</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24">
+      <c r="J19" s="12"/>
+      <c r="K19" s="13">
         <v>0.5</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="12">
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="P19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="61">
-        <f>U15+U18</f>
-        <v>31560000</v>
-      </c>
-      <c r="V19" s="61">
-        <f>SUM(V9:V17)</f>
-        <v>237000000</v>
-      </c>
-      <c r="W19" s="61">
-        <f>SUM(W9:W16)</f>
-        <v>28440000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="22" t="s">
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="82">
+        <v>44064</v>
+      </c>
+      <c r="S19" s="19">
+        <v>80000000</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="U19" s="19">
+        <f>S19*12%</f>
+        <v>9600000</v>
+      </c>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+    </row>
+    <row r="20" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="11">
         <v>12</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="12">
         <v>255000</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="12">
         <f t="shared" si="0"/>
         <v>3060000</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24">
+      <c r="J20" s="12"/>
+      <c r="K20" s="13">
         <v>0.5</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="12">
         <f t="shared" si="3"/>
         <v>1530000</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="22" t="s">
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="82">
+        <v>44097</v>
+      </c>
+      <c r="S20" s="19">
+        <v>5000000</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="U20" s="19">
+        <f>S20*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+    </row>
+    <row r="21" spans="1:26" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="11">
         <v>12</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="12">
         <v>485000</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="12">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24">
+      <c r="J21" s="12"/>
+      <c r="K21" s="13">
         <v>0.5</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="12">
         <f t="shared" si="3"/>
         <v>2910000</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="22" t="s">
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="25">
+        <f>SUM(S18:S20)</f>
+        <v>185000000</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="27">
+        <f>SUM(U18:U20)</f>
+        <v>22200000</v>
+      </c>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+    </row>
+    <row r="22" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="11">
         <v>9</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="12">
         <v>550000</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="12">
         <f t="shared" si="0"/>
         <v>4950000</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24">
+      <c r="J22" s="12"/>
+      <c r="K22" s="13">
         <v>0.5</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="12">
         <f t="shared" si="3"/>
         <v>2475000</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="43" t="s">
+      <c r="P22" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="30">
+        <f>U17+U21</f>
+        <v>32760000</v>
+      </c>
+      <c r="V22" s="30">
+        <f>SUM(V9:V20)</f>
+        <v>227000000</v>
+      </c>
+      <c r="W22" s="30">
+        <f>SUM(W9:W19)</f>
+        <v>27240000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="20">
         <v>10</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="21">
         <v>455000</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="21">
         <f t="shared" si="0"/>
         <v>4550000</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45">
+      <c r="J23" s="21"/>
+      <c r="K23" s="22">
         <v>0.5</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="21">
         <f t="shared" si="3"/>
         <v>2275000</v>
       </c>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33">
         <f>SUM(I7:I23)</f>
         <v>75795000</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65">
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33">
         <f>SUM(L7:L23)</f>
         <v>37897500</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="M26" s="67" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="M26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="70" t="s">
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R26" s="71">
+      <c r="R26" s="36">
         <v>500000</v>
       </c>
-      <c r="S26" s="72">
+      <c r="S26" s="56">
         <f>SUM(R26:R29)</f>
         <v>4888000</v>
       </c>
-      <c r="T26" s="73"/>
+      <c r="T26" s="57"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="R27" s="78">
+      <c r="R27" s="38">
         <v>400000</v>
       </c>
-      <c r="S27" s="79"/>
-      <c r="T27" s="80"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="59"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="38">
         <v>100000</v>
       </c>
-      <c r="S28" s="79"/>
-      <c r="T28" s="80"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="59"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="81"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="77" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="39"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="R29" s="78">
+      <c r="R29" s="38">
         <v>3888000</v>
       </c>
-      <c r="S29" s="85"/>
-      <c r="T29" s="86"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="M30" s="90" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="M30" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="92">
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="65">
         <v>700000</v>
       </c>
-      <c r="T30" s="92"/>
+      <c r="T30" s="65"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M31" s="93" t="s">
+      <c r="M31" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="95">
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="45">
         <f>SUM(S26:T30)</f>
         <v>5588000</v>
       </c>
-      <c r="T31" s="95"/>
+      <c r="T31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="M26:P29"/>
-    <mergeCell ref="S26:T29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P9:P15"/>
-    <mergeCell ref="Q9:Q15"/>
-    <mergeCell ref="V9:V14"/>
-    <mergeCell ref="W9:W14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="W9:W16"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="Q9:Q17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:A6"/>
@@ -2176,7 +2245,40 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V9:V16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="M26:P29"/>
+    <mergeCell ref="S26:T29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:T30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T8" sheetId="1" r:id="rId1"/>
+    <sheet name="T9" sheetId="2" r:id="rId2"/>
+    <sheet name="T10" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -175,18 +177,34 @@
   </si>
   <si>
     <t>Tổng chi</t>
+  </si>
+  <si>
+    <t>TIỀN MUA HÀNG VĂN SƠN THÁNG 9</t>
+  </si>
+  <si>
+    <t>Đại lý chị Bởi 38%</t>
+  </si>
+  <si>
+    <t>Tổng chị Bởi đã thanh toán</t>
+  </si>
+  <si>
+    <t>HH tháng 10</t>
+  </si>
+  <si>
+    <t>HH tháng 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +294,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +326,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -551,13 +587,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,6 +732,141 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,9 +922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,118 +933,100 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,13 +1341,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1204,107 +1367,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="80" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="76" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="76"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="77">
         <v>612</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="80">
         <v>44032</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="77" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1330,11 +1493,11 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1356,31 +1519,31 @@
         <f t="shared" si="1"/>
         <v>2790000</v>
       </c>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92" t="s">
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="R8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="93"/>
-      <c r="T8" s="94" t="s">
+      <c r="S8" s="71"/>
+      <c r="T8" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="95"/>
-      <c r="V8" s="96" t="s">
+      <c r="U8" s="60"/>
+      <c r="V8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="96" t="s">
+      <c r="W8" s="58" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1402,10 +1565,10 @@
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="P9" s="97" t="s">
+      <c r="P9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="93" t="s">
+      <c r="Q9" s="71" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="15">
@@ -1421,21 +1584,21 @@
         <f>S9*12%</f>
         <v>600000</v>
       </c>
-      <c r="V9" s="89">
+      <c r="V9" s="67">
         <f>200000000-S9-S10-S11-S12-S13-S14-S15-S16</f>
-        <v>112000000</v>
-      </c>
-      <c r="W9" s="89">
+        <v>117000000</v>
+      </c>
+      <c r="W9" s="67">
         <f>V9*12%</f>
-        <v>13440000</v>
+        <v>14040000</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1457,30 +1620,30 @@
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="93"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
       <c r="R10" s="18">
         <v>44040</v>
       </c>
       <c r="S10" s="19">
         <v>10000000</v>
       </c>
-      <c r="T10" s="87">
+      <c r="T10" s="54">
         <v>0.12</v>
       </c>
       <c r="U10" s="19">
-        <f t="shared" ref="U10:U17" si="2">S10*12%</f>
+        <f t="shared" ref="U10:U16" si="2">S10*12%</f>
         <v>1200000</v>
       </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
@@ -1502,30 +1665,30 @@
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="93"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
       <c r="R11" s="18">
         <v>44049</v>
       </c>
       <c r="S11" s="19">
         <v>30000000</v>
       </c>
-      <c r="T11" s="87">
+      <c r="T11" s="54">
         <v>0.12</v>
       </c>
       <c r="U11" s="19">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
@@ -1547,30 +1710,30 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="93"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
       <c r="R12" s="18">
         <v>44054</v>
       </c>
       <c r="S12" s="19">
         <v>20000000</v>
       </c>
-      <c r="T12" s="87">
+      <c r="T12" s="54">
         <v>0.12</v>
       </c>
       <c r="U12" s="19">
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
     </row>
     <row r="13" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
@@ -1592,38 +1755,38 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="93"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
       <c r="R13" s="18">
         <v>44060</v>
       </c>
       <c r="S13" s="19">
         <v>8000000</v>
       </c>
-      <c r="T13" s="87">
+      <c r="T13" s="54">
         <v>0.12</v>
       </c>
       <c r="U13" s="19">
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="77">
         <v>762</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="80">
         <v>44063</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1647,30 +1810,30 @@
         <f t="shared" ref="L14:L23" si="3">I14*(1-K14)</f>
         <v>562500</v>
       </c>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="93"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
       <c r="R14" s="18">
         <v>44068</v>
       </c>
       <c r="S14" s="19">
         <v>10000000</v>
       </c>
-      <c r="T14" s="87">
+      <c r="T14" s="54">
         <v>0.12</v>
       </c>
       <c r="U14" s="19">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
@@ -1692,30 +1855,21 @@
         <f t="shared" si="3"/>
         <v>2275000</v>
       </c>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="18">
-        <v>44077</v>
-      </c>
-      <c r="S15" s="19">
-        <v>2000000</v>
-      </c>
-      <c r="T15" s="87">
-        <v>0.12</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="2"/>
-        <v>240000</v>
-      </c>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -1737,30 +1891,21 @@
         <f t="shared" si="3"/>
         <v>1162500</v>
       </c>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="23">
-        <v>44085</v>
-      </c>
-      <c r="S16" s="24">
-        <v>3000000</v>
-      </c>
-      <c r="T16" s="88">
-        <v>0.12</v>
-      </c>
-      <c r="U16" s="24">
-        <f t="shared" si="2"/>
-        <v>360000</v>
-      </c>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
@@ -1782,39 +1927,39 @@
         <f t="shared" si="3"/>
         <v>1137500</v>
       </c>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="84" t="s">
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="S17" s="85">
+      <c r="S17" s="52">
         <f>SUM(S9:S16)</f>
-        <v>88000000</v>
-      </c>
-      <c r="T17" s="86" t="s">
+        <v>83000000</v>
+      </c>
+      <c r="T17" s="53" t="s">
         <v>37</v>
       </c>
       <c r="U17" s="27">
         <f>SUM(U9:U16)</f>
-        <v>10560000</v>
+        <v>9960000</v>
       </c>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
     </row>
     <row r="18" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="77">
         <v>769</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="80">
         <v>44068</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="85" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1838,13 +1983,13 @@
         <f t="shared" si="3"/>
         <v>1350000</v>
       </c>
-      <c r="P18" s="98" t="s">
+      <c r="P18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="99" t="s">
+      <c r="Q18" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="81" t="s">
+      <c r="R18" s="48" t="s">
         <v>39</v>
       </c>
       <c r="S18" s="16">
@@ -1857,21 +2002,21 @@
         <f>S18*12%</f>
         <v>12000000</v>
       </c>
-      <c r="V18" s="89">
+      <c r="V18" s="67">
         <f>300000000-S18-S19-S20</f>
-        <v>115000000</v>
-      </c>
-      <c r="W18" s="89">
+        <v>120000000</v>
+      </c>
+      <c r="W18" s="67">
         <f>V18*12%</f>
-        <v>13800000</v>
+        <v>14400000</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="73"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1893,9 +2038,9 @@
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="82">
+      <c r="P19" s="62"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="49">
         <v>44064</v>
       </c>
       <c r="S19" s="19">
@@ -1908,15 +2053,15 @@
         <f>S19*12%</f>
         <v>9600000</v>
       </c>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
     </row>
     <row r="20" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="73"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="11" t="s">
         <v>42</v>
       </c>
@@ -1938,30 +2083,21 @@
         <f t="shared" si="3"/>
         <v>1530000</v>
       </c>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="82">
-        <v>44097</v>
-      </c>
-      <c r="S20" s="19">
-        <v>5000000</v>
-      </c>
-      <c r="T20" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="U20" s="19">
-        <f>S20*12%</f>
-        <v>600000</v>
-      </c>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
     </row>
     <row r="21" spans="1:26" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="73"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="11" t="s">
         <v>43</v>
       </c>
@@ -1983,31 +2119,31 @@
         <f t="shared" si="3"/>
         <v>2910000</v>
       </c>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="83" t="s">
+      <c r="P21" s="63"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="50" t="s">
         <v>40</v>
       </c>
       <c r="S21" s="25">
         <f>SUM(S18:S20)</f>
-        <v>185000000</v>
+        <v>180000000</v>
       </c>
       <c r="T21" s="26" t="s">
         <v>37</v>
       </c>
       <c r="U21" s="27">
         <f>SUM(U18:U20)</f>
-        <v>22200000</v>
+        <v>21600000</v>
       </c>
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="73"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="11" t="s">
         <v>32</v>
       </c>
@@ -2029,32 +2165,32 @@
         <f t="shared" si="3"/>
         <v>2475000</v>
       </c>
-      <c r="P22" s="94" t="s">
+      <c r="P22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="95"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="14"/>
       <c r="U22" s="30">
         <f>U17+U21</f>
-        <v>32760000</v>
+        <v>31560000</v>
       </c>
       <c r="V22" s="30">
         <f>SUM(V9:V20)</f>
-        <v>227000000</v>
+        <v>237000000</v>
       </c>
       <c r="W22" s="30">
         <f>SUM(W9:W19)</f>
-        <v>27240000</v>
+        <v>28440000</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="74"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
@@ -2083,14 +2219,14 @@
       <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33">
@@ -2108,82 +2244,82 @@
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="M26" s="47" t="s">
+      <c r="M26" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
       <c r="Q26" s="35" t="s">
         <v>46</v>
       </c>
       <c r="R26" s="36">
         <v>500000</v>
       </c>
-      <c r="S26" s="56">
+      <c r="S26" s="101">
         <f>SUM(R26:R29)</f>
         <v>4888000</v>
       </c>
-      <c r="T26" s="57"/>
+      <c r="T26" s="102"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="97"/>
       <c r="Q27" s="37" t="s">
         <v>47</v>
       </c>
       <c r="R27" s="38">
         <v>400000</v>
       </c>
-      <c r="S27" s="58"/>
-      <c r="T27" s="59"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="104"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
       <c r="Q28" s="37" t="s">
         <v>48</v>
       </c>
       <c r="R28" s="38">
         <v>100000</v>
       </c>
-      <c r="S28" s="58"/>
-      <c r="T28" s="59"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="104"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
       <c r="K29" s="39"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="55"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
       <c r="Q29" s="37" t="s">
         <v>49</v>
       </c>
       <c r="R29" s="38">
         <v>3888000</v>
       </c>
-      <c r="S29" s="60"/>
-      <c r="T29" s="61"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="106"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -2197,64 +2333,45 @@
       <c r="I30" s="41"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
-      <c r="M30" s="63" t="s">
+      <c r="M30" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="65">
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="109">
         <v>700000</v>
       </c>
-      <c r="T30" s="65"/>
+      <c r="T30" s="109"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="45">
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="90">
         <f>SUM(S26:T30)</f>
         <v>5588000</v>
       </c>
-      <c r="T31" s="45"/>
+      <c r="T31" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="W9:W16"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="Q9:Q17"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="M26:P29"/>
+    <mergeCell ref="S26:T29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:T30"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V9:V16"/>
@@ -2268,17 +2385,1393 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="M26:P29"/>
-    <mergeCell ref="S26:T29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="W9:W16"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="Q9:Q17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="83"/>
+    </row>
+    <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>788</v>
+      </c>
+      <c r="B7" s="80">
+        <v>44090</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="43">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>455000</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I12" si="0">G7*H7</f>
+        <v>3640000</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L10" si="1">I7*(1-K7)-J7</f>
+        <v>1820000</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="60"/>
+      <c r="T7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="44">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12">
+        <v>465000</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>2325000</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="1"/>
+        <v>1162500</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="15">
+        <v>44040</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>5000000</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="S8" s="16">
+        <f>Q8*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="T8" s="67">
+        <f>200000000-Q8-Q9-Q10-Q11-Q12-Q13-Q14-Q15</f>
+        <v>112000000</v>
+      </c>
+      <c r="U8" s="67">
+        <f>T8*12%</f>
+        <v>13440000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="78"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="44">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>255000</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>1020000</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="1"/>
+        <v>510000</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="18">
+        <v>44040</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="R9" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" ref="S9:S15" si="2">Q9*12%</f>
+        <v>1200000</v>
+      </c>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="44">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>485000</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>2425000</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>1212500</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="18">
+        <v>44049</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>30000000</v>
+      </c>
+      <c r="R10" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" si="2"/>
+        <v>3600000</v>
+      </c>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>676</v>
+      </c>
+      <c r="B11" s="45">
+        <v>44097</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="43">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>550000</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ref="L11:L12" si="3">I11*(1-K11)</f>
+        <v>275000</v>
+      </c>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="18">
+        <v>44054</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>20000000</v>
+      </c>
+      <c r="R11" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S11" s="19">
+        <f t="shared" si="2"/>
+        <v>2400000</v>
+      </c>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <v>804</v>
+      </c>
+      <c r="B12" s="110">
+        <v>44102</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="43">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>465000</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>930000</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="112">
+        <f t="shared" si="3"/>
+        <v>465000</v>
+      </c>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="18">
+        <v>44060</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>8000000</v>
+      </c>
+      <c r="R12" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="2"/>
+        <v>960000</v>
+      </c>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33">
+        <f>SUM(I7:I12)</f>
+        <v>10890000</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="111">
+        <f>SUM(L7:L12)</f>
+        <v>5445000</v>
+      </c>
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="18">
+        <v>44068</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="R13" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="122">
+        <v>44077</v>
+      </c>
+      <c r="Q14" s="123">
+        <v>2000000</v>
+      </c>
+      <c r="R14" s="124">
+        <v>0.12</v>
+      </c>
+      <c r="S14" s="123">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="125">
+        <v>44085</v>
+      </c>
+      <c r="Q15" s="126">
+        <v>3000000</v>
+      </c>
+      <c r="R15" s="127">
+        <v>0.12</v>
+      </c>
+      <c r="S15" s="126">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+    </row>
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="52">
+        <f>SUM(Q8:Q15)</f>
+        <v>88000000</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="27">
+        <f>SUM(S8:S15)</f>
+        <v>10560000</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+    </row>
+    <row r="17" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N17" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>100000000</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="S17" s="16">
+        <f>Q17*12%</f>
+        <v>12000000</v>
+      </c>
+      <c r="T17" s="67">
+        <f>300000000-Q17-Q18-Q19</f>
+        <v>115000000</v>
+      </c>
+      <c r="U17" s="67">
+        <f>T17*12%</f>
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="18" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N18" s="62"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="18">
+        <v>44064</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>80000000</v>
+      </c>
+      <c r="R18" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S18" s="19">
+        <f>Q18*12%</f>
+        <v>9600000</v>
+      </c>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+    </row>
+    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N19" s="62"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="125">
+        <v>44097</v>
+      </c>
+      <c r="Q19" s="126">
+        <v>5000000</v>
+      </c>
+      <c r="R19" s="127">
+        <v>0.12</v>
+      </c>
+      <c r="S19" s="126">
+        <f>Q19*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+    </row>
+    <row r="20" spans="14:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="N20" s="63"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="52">
+        <f>SUM(Q17:Q19)</f>
+        <v>185000000</v>
+      </c>
+      <c r="R20" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="27">
+        <f>SUM(S17:S19)</f>
+        <v>22200000</v>
+      </c>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+    </row>
+    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N21" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="60"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="30">
+        <f>S16+S20</f>
+        <v>32760000</v>
+      </c>
+      <c r="T21" s="30">
+        <f>SUM(T8:T19)</f>
+        <v>227000000</v>
+      </c>
+      <c r="U21" s="30">
+        <f>SUM(U8:U18)</f>
+        <v>27240000</v>
+      </c>
+    </row>
+    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="114">
+        <f>S14+S15+S19</f>
+        <v>1200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N8:N16"/>
+    <mergeCell ref="O8:O16"/>
+    <mergeCell ref="T8:T15"/>
+    <mergeCell ref="U8:U15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="60"/>
+      <c r="T4" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="84"/>
+      <c r="L5" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="15">
+        <v>44040</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>5000000</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="S5" s="16">
+        <f>Q5*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="T5" s="67">
+        <f>200000000-Q5-Q6-Q7-Q8-Q9-Q10-Q11-Q12</f>
+        <v>112000000</v>
+      </c>
+      <c r="U5" s="67">
+        <f>T5*12%</f>
+        <v>13440000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="83"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="18">
+        <v>44040</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="R6" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" ref="S6:S12" si="0">Q6*12%</f>
+        <v>1200000</v>
+      </c>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>1211</v>
+      </c>
+      <c r="B7" s="80">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="43">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>485000</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I8" si="1">G7*H7</f>
+        <v>485000</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L8" si="2">I7*(1-K7)-J7</f>
+        <v>242500</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="18">
+        <v>44049</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>30000000</v>
+      </c>
+      <c r="R7" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="44">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>550000</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="2"/>
+        <v>275000</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="18">
+        <v>44054</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>20000000</v>
+      </c>
+      <c r="R8" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="0"/>
+        <v>2400000</v>
+      </c>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="111">
+        <f>SUM(I7:I8)</f>
+        <v>1035000</v>
+      </c>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="111">
+        <f>SUM(L7:L8)</f>
+        <v>517500</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="18">
+        <v>44060</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>8000000</v>
+      </c>
+      <c r="R9" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="0"/>
+        <v>960000</v>
+      </c>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="18">
+        <v>44068</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="R10" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="140">
+        <v>44077</v>
+      </c>
+      <c r="Q11" s="137">
+        <v>2000000</v>
+      </c>
+      <c r="R11" s="141">
+        <v>0.12</v>
+      </c>
+      <c r="S11" s="137">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="142">
+        <v>44085</v>
+      </c>
+      <c r="Q12" s="143">
+        <v>3000000</v>
+      </c>
+      <c r="R12" s="138">
+        <v>0.12</v>
+      </c>
+      <c r="S12" s="143">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+    </row>
+    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="52">
+        <f>SUM(Q5:Q12)</f>
+        <v>88000000</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="27">
+        <f>SUM(S5:S12)</f>
+        <v>10560000</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>100000000</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="S14" s="16">
+        <f>Q14*12%</f>
+        <v>12000000</v>
+      </c>
+      <c r="T14" s="67">
+        <f>300000000-Q14-Q15-Q16</f>
+        <v>115000000</v>
+      </c>
+      <c r="U14" s="67">
+        <f>T14*12%</f>
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N15" s="62"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="49">
+        <v>44064</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>80000000</v>
+      </c>
+      <c r="R15" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S15" s="19">
+        <f>Q15*12%</f>
+        <v>9600000</v>
+      </c>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N16" s="62"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="136">
+        <v>44097</v>
+      </c>
+      <c r="Q16" s="137">
+        <v>5000000</v>
+      </c>
+      <c r="R16" s="138">
+        <v>0.12</v>
+      </c>
+      <c r="S16" s="139">
+        <f>Q16*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+    </row>
+    <row r="17" spans="14:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="N17" s="63"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="25">
+        <f>SUM(Q14:Q16)</f>
+        <v>185000000</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="128">
+        <f>SUM(S14:S16)</f>
+        <v>22200000</v>
+      </c>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+    </row>
+    <row r="18" spans="14:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="129">
+        <v>44125</v>
+      </c>
+      <c r="Q18" s="130">
+        <v>59124000</v>
+      </c>
+      <c r="R18" s="131">
+        <v>0.12</v>
+      </c>
+      <c r="S18" s="132">
+        <f>Q18*R18</f>
+        <v>7094880</v>
+      </c>
+      <c r="T18" s="117">
+        <v>37951200</v>
+      </c>
+      <c r="U18" s="118">
+        <f>T18*12%</f>
+        <v>4554144</v>
+      </c>
+    </row>
+    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="129">
+        <v>44132</v>
+      </c>
+      <c r="Q19" s="133">
+        <v>30000000</v>
+      </c>
+      <c r="R19" s="134">
+        <v>0.12</v>
+      </c>
+      <c r="S19" s="135">
+        <f>Q19*R19</f>
+        <v>3600000</v>
+      </c>
+      <c r="T19" s="119"/>
+      <c r="U19" s="120"/>
+    </row>
+    <row r="20" spans="14:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="25">
+        <f>Q18+Q19</f>
+        <v>89124000</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="121">
+        <f>SUM(S18:S19)</f>
+        <v>10694880</v>
+      </c>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+    </row>
+    <row r="21" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N21" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="60"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="30">
+        <f>S13+S17+S20</f>
+        <v>43454880</v>
+      </c>
+      <c r="T21" s="30">
+        <f>SUM(T5:T20)</f>
+        <v>264951200</v>
+      </c>
+      <c r="U21" s="30">
+        <f>SUM(U5:U20)</f>
+        <v>31794144</v>
+      </c>
+    </row>
+    <row r="23" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="114">
+        <f>S18+S19</f>
+        <v>10694880</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N5:N13"/>
+    <mergeCell ref="O5:O13"/>
+    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="U5:U12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T8" sheetId="1" r:id="rId1"/>
     <sheet name="T9" sheetId="2" r:id="rId2"/>
     <sheet name="T10" sheetId="3" r:id="rId3"/>
+    <sheet name="T11" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -182,29 +183,60 @@
     <t>TIỀN MUA HÀNG VĂN SƠN THÁNG 9</t>
   </si>
   <si>
-    <t>Đại lý chị Bởi 38%</t>
-  </si>
-  <si>
     <t>Tổng chị Bởi đã thanh toán</t>
   </si>
   <si>
-    <t>HH tháng 10</t>
-  </si>
-  <si>
-    <t>HH tháng 9</t>
+    <t>ĐL Quỳnh Baby 200tr 38%</t>
+  </si>
+  <si>
+    <t>Đại lý chị Bởi 41% đơn hàng 107.462.600</t>
+  </si>
+  <si>
+    <t>Đại lý chị Bởi 38%*(107.462.600đ)</t>
+  </si>
+  <si>
+    <t>2CX45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đại lý Hà Linh HĐ 200 triệu CK 38% </t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>HH đã thanh toán</t>
+  </si>
+  <si>
+    <t>HH T9 chưa TT</t>
+  </si>
+  <si>
+    <t>HH T10 chưa TT</t>
+  </si>
+  <si>
+    <t>HH T11 chưa TT</t>
+  </si>
+  <si>
+    <t>Ghi chú: +50.187.500VNĐ sữa ngoài và các chi phí khác</t>
+  </si>
+  <si>
+    <t>TIỀN MUA HÀNG VĂN SƠN THÁNG 11</t>
+  </si>
+  <si>
+    <t>TIỀN MUA HÀNG VĂN SƠN THÁNG 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +332,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +376,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -600,13 +668,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,158 +861,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,87 +882,376 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1313,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,13 +1564,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1367,107 +1590,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83" t="s">
+      <c r="K5" s="133"/>
+      <c r="L5" s="132" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="119">
         <v>612</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="122">
         <v>44032</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1493,11 +1716,11 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1523,14 +1746,14 @@
       <c r="Q8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="71" t="s">
+      <c r="R8" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="71"/>
-      <c r="T8" s="59" t="s">
+      <c r="S8" s="113"/>
+      <c r="T8" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="60"/>
+      <c r="U8" s="115"/>
       <c r="V8" s="58" t="s">
         <v>26</v>
       </c>
@@ -1539,11 +1762,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1565,10 +1788,10 @@
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="P9" s="70" t="s">
+      <c r="P9" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="71" t="s">
+      <c r="Q9" s="113" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="15">
@@ -1584,21 +1807,21 @@
         <f>S9*12%</f>
         <v>600000</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="116">
         <f>200000000-S9-S10-S11-S12-S13-S14-S15-S16</f>
         <v>117000000</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="116">
         <f>V9*12%</f>
         <v>14040000</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1620,8 +1843,8 @@
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="113"/>
       <c r="R10" s="18">
         <v>44040</v>
       </c>
@@ -1632,18 +1855,18 @@
         <v>0.12</v>
       </c>
       <c r="U10" s="19">
-        <f t="shared" ref="U10:U16" si="2">S10*12%</f>
+        <f t="shared" ref="U10:U14" si="2">S10*12%</f>
         <v>1200000</v>
       </c>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
     </row>
     <row r="11" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
@@ -1665,8 +1888,8 @@
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="18">
         <v>44049</v>
       </c>
@@ -1680,15 +1903,15 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
     </row>
     <row r="12" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
@@ -1710,8 +1933,8 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="18">
         <v>44054</v>
       </c>
@@ -1725,15 +1948,15 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
     </row>
     <row r="13" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
@@ -1755,8 +1978,8 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="18">
         <v>44060</v>
       </c>
@@ -1770,23 +1993,23 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
     </row>
     <row r="14" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="119">
         <v>762</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="122">
         <v>44063</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -1810,8 +2033,8 @@
         <f t="shared" ref="L14:L23" si="3">I14*(1-K14)</f>
         <v>562500</v>
       </c>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="113"/>
       <c r="R14" s="18">
         <v>44068</v>
       </c>
@@ -1825,15 +2048,15 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
@@ -1855,21 +2078,21 @@
         <f t="shared" si="3"/>
         <v>2275000</v>
       </c>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="113"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
       <c r="T15" s="54"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -1891,21 +2114,21 @@
         <f t="shared" si="3"/>
         <v>1162500</v>
       </c>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24"/>
       <c r="T16" s="55"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
     </row>
     <row r="17" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
@@ -1927,8 +2150,8 @@
         <f t="shared" si="3"/>
         <v>1137500</v>
       </c>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="113"/>
       <c r="R17" s="51" t="s">
         <v>36</v>
       </c>
@@ -1947,19 +2170,19 @@
       <c r="W17" s="28"/>
     </row>
     <row r="18" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="A18" s="119">
         <v>769</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="122">
         <v>44068</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="125" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1983,10 +2206,10 @@
         <f t="shared" si="3"/>
         <v>1350000</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="64" t="s">
+      <c r="Q18" s="137" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="48" t="s">
@@ -2002,21 +2225,21 @@
         <f>S18*12%</f>
         <v>12000000</v>
       </c>
-      <c r="V18" s="67">
+      <c r="V18" s="116">
         <f>300000000-S18-S19-S20</f>
         <v>120000000</v>
       </c>
-      <c r="W18" s="67">
+      <c r="W18" s="116">
         <f>V18*12%</f>
         <v>14400000</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="86"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2038,8 +2261,8 @@
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="65"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="138"/>
       <c r="R19" s="49">
         <v>44064</v>
       </c>
@@ -2053,15 +2276,15 @@
         <f>S19*12%</f>
         <v>9600000</v>
       </c>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
     </row>
     <row r="20" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="86"/>
+      <c r="A20" s="120"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="11" t="s">
         <v>42</v>
       </c>
@@ -2083,21 +2306,21 @@
         <f t="shared" si="3"/>
         <v>1530000</v>
       </c>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="65"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="138"/>
       <c r="R20" s="49"/>
       <c r="S20" s="19"/>
       <c r="T20" s="17"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
     </row>
     <row r="21" spans="1:26" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="86"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="11" t="s">
         <v>43</v>
       </c>
@@ -2119,8 +2342,8 @@
         <f t="shared" si="3"/>
         <v>2910000</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="66"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="139"/>
       <c r="R21" s="50" t="s">
         <v>40</v>
       </c>
@@ -2139,11 +2362,11 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="86"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="11" t="s">
         <v>32</v>
       </c>
@@ -2165,10 +2388,10 @@
         <f t="shared" si="3"/>
         <v>2475000</v>
       </c>
-      <c r="P22" s="59" t="s">
+      <c r="P22" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="60"/>
+      <c r="Q22" s="115"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="14"/>
@@ -2186,11 +2409,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="87"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
@@ -2219,14 +2442,14 @@
       <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33">
@@ -2244,82 +2467,82 @@
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="M26" s="92" t="s">
+      <c r="M26" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
       <c r="Q26" s="35" t="s">
         <v>46</v>
       </c>
       <c r="R26" s="36">
         <v>500000</v>
       </c>
-      <c r="S26" s="101">
+      <c r="S26" s="103">
         <f>SUM(R26:R29)</f>
         <v>4888000</v>
       </c>
-      <c r="T26" s="102"/>
+      <c r="T26" s="104"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="99"/>
       <c r="Q27" s="37" t="s">
         <v>47</v>
       </c>
       <c r="R27" s="38">
         <v>400000</v>
       </c>
-      <c r="S27" s="103"/>
-      <c r="T27" s="104"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="106"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
       <c r="Q28" s="37" t="s">
         <v>48</v>
       </c>
       <c r="R28" s="38">
         <v>100000</v>
       </c>
-      <c r="S28" s="103"/>
-      <c r="T28" s="104"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="106"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
       <c r="K29" s="39"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
       <c r="Q29" s="37" t="s">
         <v>49</v>
       </c>
       <c r="R29" s="38">
         <v>3888000</v>
       </c>
-      <c r="S29" s="105"/>
-      <c r="T29" s="106"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="108"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -2333,45 +2556,61 @@
       <c r="I30" s="41"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="109">
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="112">
         <v>700000</v>
       </c>
-      <c r="T30" s="109"/>
+      <c r="T30" s="112"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M31" s="88" t="s">
+      <c r="M31" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="90">
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="92">
         <f>SUM(S26:T30)</f>
         <v>5588000</v>
       </c>
-      <c r="T31" s="90"/>
+      <c r="T31" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="M26:P29"/>
-    <mergeCell ref="S26:T29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="W9:W16"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="Q9:Q17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V9:V16"/>
@@ -2388,31 +2627,15 @@
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="W9:W16"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="Q9:Q17"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="M26:P29"/>
+    <mergeCell ref="S26:T29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:T30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2421,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,13 +2675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2478,107 +2701,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83" t="s">
+      <c r="K5" s="133"/>
+      <c r="L5" s="132" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="119">
         <v>788</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="122">
         <v>44090</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -2606,14 +2829,14 @@
       <c r="O7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="71" t="s">
+      <c r="P7" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="59" t="s">
+      <c r="Q7" s="113"/>
+      <c r="R7" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="60"/>
+      <c r="S7" s="115"/>
       <c r="T7" s="58" t="s">
         <v>26</v>
       </c>
@@ -2622,11 +2845,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="44" t="s">
         <v>22</v>
       </c>
@@ -2648,10 +2871,10 @@
         <f t="shared" si="1"/>
         <v>1162500</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="71" t="s">
+      <c r="O8" s="113" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="15">
@@ -2667,21 +2890,21 @@
         <f>Q8*12%</f>
         <v>600000</v>
       </c>
-      <c r="T8" s="67">
+      <c r="T8" s="116">
         <f>200000000-Q8-Q9-Q10-Q11-Q12-Q13-Q14-Q15</f>
         <v>112000000</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="116">
         <f>T8*12%</f>
         <v>13440000</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="44" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2926,8 @@
         <f t="shared" si="1"/>
         <v>510000</v>
       </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="113"/>
       <c r="P9" s="18">
         <v>44040</v>
       </c>
@@ -2718,15 +2941,15 @@
         <f t="shared" ref="S9:S15" si="2">Q9*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="44" t="s">
         <v>43</v>
       </c>
@@ -2748,8 +2971,8 @@
         <f t="shared" si="1"/>
         <v>1212500</v>
       </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="18">
         <v>44049</v>
       </c>
@@ -2763,8 +2986,8 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
@@ -2803,8 +3026,8 @@
         <f t="shared" ref="L11:L12" si="3">I11*(1-K11)</f>
         <v>275000</v>
       </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="113"/>
       <c r="P11" s="18">
         <v>44054</v>
       </c>
@@ -2818,14 +3041,14 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
     </row>
     <row r="12" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>804</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="61">
         <v>44102</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -2854,12 +3077,12 @@
       <c r="K12" s="9">
         <v>0.5</v>
       </c>
-      <c r="L12" s="112">
+      <c r="L12" s="63">
         <f t="shared" si="3"/>
         <v>465000</v>
       </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="113"/>
       <c r="P12" s="18">
         <v>44060</v>
       </c>
@@ -2873,18 +3096,18 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33">
@@ -2893,12 +3116,12 @@
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
-      <c r="L13" s="111">
+      <c r="L13" s="62">
         <f>SUM(L7:L12)</f>
         <v>5445000</v>
       </c>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="18">
         <v>44068</v>
       </c>
@@ -2912,50 +3135,50 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="122">
+      <c r="N14" s="140"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="68">
         <v>44077</v>
       </c>
-      <c r="Q14" s="123">
+      <c r="Q14" s="69">
         <v>2000000</v>
       </c>
-      <c r="R14" s="124">
+      <c r="R14" s="70">
         <v>0.12</v>
       </c>
-      <c r="S14" s="123">
+      <c r="S14" s="69">
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="125">
+      <c r="N15" s="140"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="71">
         <v>44085</v>
       </c>
-      <c r="Q15" s="126">
+      <c r="Q15" s="72">
         <v>3000000</v>
       </c>
-      <c r="R15" s="127">
+      <c r="R15" s="73">
         <v>0.12</v>
       </c>
-      <c r="S15" s="126">
+      <c r="S15" s="72">
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N16" s="70"/>
-      <c r="O16" s="71"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="113"/>
       <c r="P16" s="51" t="s">
         <v>36</v>
       </c>
@@ -2974,10 +3197,10 @@
       <c r="U16" s="28"/>
     </row>
     <row r="17" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N17" s="61" t="s">
+      <c r="N17" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="137" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -2993,18 +3216,18 @@
         <f>Q17*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T17" s="67">
+      <c r="T17" s="116">
         <f>300000000-Q17-Q18-Q19</f>
         <v>115000000</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="116">
         <f>T17*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="18" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N18" s="62"/>
-      <c r="O18" s="65"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="138"/>
       <c r="P18" s="18">
         <v>44064</v>
       </c>
@@ -3018,31 +3241,31 @@
         <f>Q18*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
     </row>
     <row r="19" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="62"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="125">
+      <c r="N19" s="135"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="71">
         <v>44097</v>
       </c>
-      <c r="Q19" s="126">
+      <c r="Q19" s="72">
         <v>5000000</v>
       </c>
-      <c r="R19" s="127">
+      <c r="R19" s="73">
         <v>0.12</v>
       </c>
-      <c r="S19" s="126">
+      <c r="S19" s="72">
         <f>Q19*12%</f>
         <v>600000</v>
       </c>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
     </row>
     <row r="20" spans="14:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N20" s="63"/>
-      <c r="O20" s="66"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="139"/>
       <c r="P20" s="51" t="s">
         <v>40</v>
       </c>
@@ -3061,10 +3284,10 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="60"/>
+      <c r="O21" s="115"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="14"/>
@@ -3082,38 +3305,23 @@
       </c>
     </row>
     <row r="23" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="Q23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="114">
-        <f>S14+S15+S19</f>
+      <c r="Q23" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="193">
+        <v>31560000</v>
+      </c>
+    </row>
+    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="Q24" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="193">
         <v>1200000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N8:N16"/>
-    <mergeCell ref="O8:O16"/>
-    <mergeCell ref="T8:T15"/>
-    <mergeCell ref="U8:U15"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:A6"/>
@@ -3124,6 +3332,28 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="T8:T15"/>
+    <mergeCell ref="U8:U15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N8:N16"/>
+    <mergeCell ref="O8:O16"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3131,10 +3361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:U21"/>
+    <sheetView topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,13 +3382,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3184,56 +3414,56 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="A3" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="59" t="s">
+      <c r="Q4" s="113"/>
+      <c r="R4" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="60"/>
+      <c r="S4" s="115"/>
       <c r="T4" s="58" t="s">
         <v>26</v>
       </c>
@@ -3242,38 +3472,38 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83" t="s">
+      <c r="K5" s="133"/>
+      <c r="L5" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="113" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="15">
@@ -3289,34 +3519,34 @@
         <f>Q5*12%</f>
         <v>600000</v>
       </c>
-      <c r="T5" s="67">
+      <c r="T5" s="116">
         <f>200000000-Q5-Q6-Q7-Q8-Q9-Q10-Q11-Q12</f>
         <v>112000000</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="116">
         <f>T5*12%</f>
         <v>13440000</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
       <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71"/>
+      <c r="L6" s="132"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="113"/>
       <c r="P6" s="18">
         <v>44040</v>
       </c>
@@ -3330,23 +3560,23 @@
         <f t="shared" ref="S6:S12" si="0">Q6*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="119">
         <v>1211</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="122">
         <v>44113</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="119" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -3370,8 +3600,8 @@
         <f t="shared" ref="L7:L8" si="2">I7*(1-K7)-J7</f>
         <v>242500</v>
       </c>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="113"/>
       <c r="P7" s="18">
         <v>44049</v>
       </c>
@@ -3385,15 +3615,15 @@
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="44" t="s">
         <v>32</v>
       </c>
@@ -3415,8 +3645,8 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="113"/>
       <c r="P8" s="18">
         <v>44054</v>
       </c>
@@ -3430,32 +3660,32 @@
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="111">
+      <c r="I9" s="62">
         <f>SUM(I7:I8)</f>
         <v>1035000</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="111">
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="62">
         <f>SUM(L7:L8)</f>
         <v>517500</v>
       </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="113"/>
       <c r="P9" s="18">
         <v>44060</v>
       </c>
@@ -3469,12 +3699,12 @@
         <f t="shared" si="0"/>
         <v>960000</v>
       </c>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N10" s="70"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="18">
         <v>44068</v>
       </c>
@@ -3488,50 +3718,50 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="140">
+      <c r="N11" s="140"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="86">
         <v>44077</v>
       </c>
-      <c r="Q11" s="137">
+      <c r="Q11" s="83">
         <v>2000000</v>
       </c>
-      <c r="R11" s="141">
+      <c r="R11" s="87">
         <v>0.12</v>
       </c>
-      <c r="S11" s="137">
+      <c r="S11" s="83">
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="142">
+      <c r="N12" s="140"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="88">
         <v>44085</v>
       </c>
-      <c r="Q12" s="143">
+      <c r="Q12" s="89">
         <v>3000000</v>
       </c>
-      <c r="R12" s="138">
+      <c r="R12" s="84">
         <v>0.12</v>
       </c>
-      <c r="S12" s="143">
+      <c r="S12" s="89">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="51" t="s">
         <v>36</v>
       </c>
@@ -3550,10 +3780,10 @@
       <c r="U13" s="28"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="64" t="s">
+      <c r="O14" s="137" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="48" t="s">
@@ -3569,18 +3799,18 @@
         <f>Q14*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T14" s="67">
+      <c r="T14" s="116">
         <f>300000000-Q14-Q15-Q16</f>
         <v>115000000</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="116">
         <f>T14*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="62"/>
-      <c r="O15" s="65"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="138"/>
       <c r="P15" s="49">
         <v>44064</v>
       </c>
@@ -3594,31 +3824,31 @@
         <f>Q15*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N16" s="62"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="136">
+      <c r="N16" s="135"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="82">
         <v>44097</v>
       </c>
-      <c r="Q16" s="137">
+      <c r="Q16" s="83">
         <v>5000000</v>
       </c>
-      <c r="R16" s="138">
+      <c r="R16" s="84">
         <v>0.12</v>
       </c>
-      <c r="S16" s="139">
+      <c r="S16" s="85">
         <f>Q16*12%</f>
         <v>600000</v>
       </c>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
     </row>
     <row r="17" spans="14:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N17" s="63"/>
-      <c r="O17" s="66"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="139"/>
       <c r="P17" s="50" t="s">
         <v>40</v>
       </c>
@@ -3629,65 +3859,66 @@
       <c r="R17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="128">
+      <c r="S17" s="74">
         <f>SUM(S14:S16)</f>
         <v>22200000</v>
       </c>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="14:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="70" t="s">
+      <c r="N18" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="75">
+        <v>44125</v>
+      </c>
+      <c r="Q18" s="76">
+        <v>59124000</v>
+      </c>
+      <c r="R18" s="77">
+        <v>0.09</v>
+      </c>
+      <c r="S18" s="78">
+        <f>Q18*R18</f>
+        <v>5321160</v>
+      </c>
+      <c r="T18" s="141">
+        <f>107462600-Q18-Q19</f>
+        <v>18338600</v>
+      </c>
+      <c r="U18" s="143">
+        <f>T18*12%</f>
+        <v>2200632</v>
+      </c>
+    </row>
+    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="75">
+        <v>44132</v>
+      </c>
+      <c r="Q19" s="79">
+        <v>30000000</v>
+      </c>
+      <c r="R19" s="80">
+        <v>0.09</v>
+      </c>
+      <c r="S19" s="81">
+        <f>Q19*R19</f>
+        <v>2700000</v>
+      </c>
+      <c r="T19" s="142"/>
+      <c r="U19" s="144"/>
+    </row>
+    <row r="20" spans="14:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="50" t="s">
         <v>53</v>
-      </c>
-      <c r="O18" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="129">
-        <v>44125</v>
-      </c>
-      <c r="Q18" s="130">
-        <v>59124000</v>
-      </c>
-      <c r="R18" s="131">
-        <v>0.12</v>
-      </c>
-      <c r="S18" s="132">
-        <f>Q18*R18</f>
-        <v>7094880</v>
-      </c>
-      <c r="T18" s="117">
-        <v>37951200</v>
-      </c>
-      <c r="U18" s="118">
-        <f>T18*12%</f>
-        <v>4554144</v>
-      </c>
-    </row>
-    <row r="19" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="129">
-        <v>44132</v>
-      </c>
-      <c r="Q19" s="133">
-        <v>30000000</v>
-      </c>
-      <c r="R19" s="134">
-        <v>0.12</v>
-      </c>
-      <c r="S19" s="135">
-        <f>Q19*R19</f>
-        <v>3600000</v>
-      </c>
-      <c r="T19" s="119"/>
-      <c r="U19" s="120"/>
-    </row>
-    <row r="20" spans="14:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="50" t="s">
-        <v>54</v>
       </c>
       <c r="Q20" s="25">
         <f>Q18+Q19</f>
@@ -3696,55 +3927,73 @@
       <c r="R20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="121">
+      <c r="S20" s="145">
         <f>SUM(S18:S19)</f>
-        <v>10694880</v>
-      </c>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
+        <v>8021160</v>
+      </c>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="59" t="s">
+      <c r="N21" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="60"/>
+      <c r="O21" s="115"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="14"/>
       <c r="S21" s="30">
         <f>S13+S17+S20</f>
-        <v>43454880</v>
+        <v>40781160</v>
       </c>
       <c r="T21" s="30">
         <f>SUM(T5:T20)</f>
-        <v>264951200</v>
+        <v>245338600</v>
       </c>
       <c r="U21" s="30">
         <f>SUM(U5:U20)</f>
-        <v>31794144</v>
+        <v>29440632</v>
       </c>
     </row>
     <row r="23" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="Q23" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="114">
-        <f>S18+S19</f>
-        <v>10694880</v>
+      <c r="S23" s="65"/>
+    </row>
+    <row r="24" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="Q24" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="193">
+        <v>31560000</v>
+      </c>
+    </row>
+    <row r="25" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="Q25" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="193">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="26" spans="14:21" x14ac:dyDescent="0.25">
+      <c r="Q26" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" s="193">
+        <v>8021160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N5:N13"/>
-    <mergeCell ref="O5:O13"/>
-    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="U5:U12"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="N14:N17"/>
@@ -3761,6 +4010,744 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N5:N13"/>
+    <mergeCell ref="O5:O13"/>
+    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="133"/>
+      <c r="L5" s="132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="132"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="146">
+        <v>1249</v>
+      </c>
+      <c r="B7" s="147">
+        <v>44155</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="146"/>
+      <c r="F7" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="148">
+        <v>24</v>
+      </c>
+      <c r="H7" s="149">
+        <v>235000</v>
+      </c>
+      <c r="I7" s="149">
+        <f t="shared" ref="I7:I8" si="0">G7*H7</f>
+        <v>5640000</v>
+      </c>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150">
+        <v>0.41</v>
+      </c>
+      <c r="L7" s="149">
+        <f t="shared" ref="L7:L8" si="1">I7*(1-K7)</f>
+        <v>3327600.0000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="148">
+        <v>8</v>
+      </c>
+      <c r="H8" s="149">
+        <v>465000</v>
+      </c>
+      <c r="I8" s="149">
+        <f t="shared" si="0"/>
+        <v>3720000</v>
+      </c>
+      <c r="J8" s="149"/>
+      <c r="K8" s="150">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="149">
+        <f t="shared" si="1"/>
+        <v>2194800.0000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="62">
+        <f>SUM(I7:I8)</f>
+        <v>9360000</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="62">
+        <f>SUM(L7:L8)</f>
+        <v>5522400.0000000009</v>
+      </c>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="115"/>
+      <c r="T9" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="153" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N10" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="185" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="15">
+        <v>44040</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>5000000</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="S10" s="16">
+        <f>Q10*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="T10" s="170">
+        <f>200000000-Q10-Q11-Q12-Q13-Q14-Q15-Q16-Q17-Q18</f>
+        <v>105000000</v>
+      </c>
+      <c r="U10" s="170">
+        <f>T10*12%</f>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="18">
+        <v>44040</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="R11" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S11" s="19">
+        <f t="shared" ref="S11:S18" si="2">Q11*12%</f>
+        <v>1200000</v>
+      </c>
+      <c r="T11" s="171"/>
+      <c r="U11" s="171"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="18">
+        <v>44049</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>30000000</v>
+      </c>
+      <c r="R12" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="2"/>
+        <v>3600000</v>
+      </c>
+      <c r="T12" s="171"/>
+      <c r="U12" s="171"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="18">
+        <v>44054</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>20000000</v>
+      </c>
+      <c r="R13" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" si="2"/>
+        <v>2400000</v>
+      </c>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N14" s="185"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="18">
+        <v>44060</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>8000000</v>
+      </c>
+      <c r="R14" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S14" s="19">
+        <f t="shared" si="2"/>
+        <v>960000</v>
+      </c>
+      <c r="T14" s="171"/>
+      <c r="U14" s="171"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="18">
+        <v>44068</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="R15" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="86">
+        <v>44077</v>
+      </c>
+      <c r="Q16" s="83">
+        <v>2000000</v>
+      </c>
+      <c r="R16" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="S16" s="83">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+      <c r="T16" s="171"/>
+      <c r="U16" s="171"/>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="88">
+        <v>44085</v>
+      </c>
+      <c r="Q17" s="89">
+        <v>3000000</v>
+      </c>
+      <c r="R17" s="84">
+        <v>0.12</v>
+      </c>
+      <c r="S17" s="89">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="155">
+        <v>44137</v>
+      </c>
+      <c r="Q18" s="156">
+        <v>7000000</v>
+      </c>
+      <c r="R18" s="157">
+        <v>0.12</v>
+      </c>
+      <c r="S18" s="158">
+        <f t="shared" si="2"/>
+        <v>840000</v>
+      </c>
+      <c r="T18" s="190" t="s">
+        <v>64</v>
+      </c>
+      <c r="U18" s="154"/>
+    </row>
+    <row r="19" spans="9:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N19" s="185"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="52">
+        <f>SUM(Q10:Q18)</f>
+        <v>95000000</v>
+      </c>
+      <c r="R19" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="27">
+        <f>SUM(S10:S18)</f>
+        <v>11400000</v>
+      </c>
+      <c r="T19" s="191"/>
+      <c r="U19" s="28"/>
+    </row>
+    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N20" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="186" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>100000000</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="S20" s="16">
+        <f>Q20*12%</f>
+        <v>12000000</v>
+      </c>
+      <c r="T20" s="170">
+        <f>300000000-Q20-Q21-Q22</f>
+        <v>115000000</v>
+      </c>
+      <c r="U20" s="170">
+        <f>T20*12%</f>
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="49">
+        <v>44064</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>80000000</v>
+      </c>
+      <c r="R21" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="S21" s="19">
+        <f>Q21*12%</f>
+        <v>9600000</v>
+      </c>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="82">
+        <v>44097</v>
+      </c>
+      <c r="Q22" s="83">
+        <v>5000000</v>
+      </c>
+      <c r="R22" s="84">
+        <v>0.12</v>
+      </c>
+      <c r="S22" s="85">
+        <f>Q22*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+    </row>
+    <row r="23" spans="9:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="N23" s="188"/>
+      <c r="O23" s="188"/>
+      <c r="P23" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="25">
+        <f>SUM(Q20:Q22)</f>
+        <v>185000000</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="74">
+        <f>SUM(S20:S22)</f>
+        <v>22200000</v>
+      </c>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+    </row>
+    <row r="24" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N24" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="185" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="159">
+        <v>44125</v>
+      </c>
+      <c r="Q24" s="162">
+        <v>59124000</v>
+      </c>
+      <c r="R24" s="163">
+        <v>0.09</v>
+      </c>
+      <c r="S24" s="160">
+        <f>Q24*R24</f>
+        <v>5321160</v>
+      </c>
+      <c r="T24" s="173">
+        <f>107462600-Q24-Q25-Q26</f>
+        <v>8338600</v>
+      </c>
+      <c r="U24" s="174">
+        <f>T24*9%</f>
+        <v>750474</v>
+      </c>
+    </row>
+    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="159">
+        <v>44132</v>
+      </c>
+      <c r="Q25" s="160">
+        <v>30000000</v>
+      </c>
+      <c r="R25" s="164">
+        <v>0.09</v>
+      </c>
+      <c r="S25" s="161">
+        <f>Q25*R25</f>
+        <v>2700000</v>
+      </c>
+      <c r="T25" s="175"/>
+      <c r="U25" s="176"/>
+    </row>
+    <row r="26" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I26" s="65"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="165">
+        <v>44160</v>
+      </c>
+      <c r="Q26" s="166">
+        <v>10000000</v>
+      </c>
+      <c r="R26" s="167">
+        <v>0.09</v>
+      </c>
+      <c r="S26" s="168">
+        <f>Q26*R26</f>
+        <v>900000</v>
+      </c>
+      <c r="T26" s="177"/>
+      <c r="U26" s="178"/>
+    </row>
+    <row r="27" spans="9:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N27" s="185"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="25">
+        <f>Q24+Q25+Q26</f>
+        <v>99124000</v>
+      </c>
+      <c r="R27" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="145">
+        <f>SUM(S24:S26)</f>
+        <v>8921160</v>
+      </c>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+    </row>
+    <row r="28" spans="9:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="192" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="192" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="179" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="180">
+        <v>200000000</v>
+      </c>
+      <c r="R28" s="182">
+        <v>0.12</v>
+      </c>
+      <c r="S28" s="181">
+        <f>Q28*R28</f>
+        <v>24000000</v>
+      </c>
+      <c r="T28" s="183">
+        <v>0</v>
+      </c>
+      <c r="U28" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N29" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="115"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="30">
+        <f>S19+S23+S27</f>
+        <v>42521160</v>
+      </c>
+      <c r="T29" s="189">
+        <f>SUM(T10:T27)</f>
+        <v>228338600</v>
+      </c>
+      <c r="U29" s="169">
+        <f>SUM(U10:U28)</f>
+        <v>27150474</v>
+      </c>
+    </row>
+    <row r="31" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="65">
+        <f>SUM(S10:S15)+SUM(S20:S21)</f>
+        <v>31560000</v>
+      </c>
+    </row>
+    <row r="32" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" s="65">
+        <f>S16+S17+S22</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S33" s="65">
+        <f>S24+S25</f>
+        <v>8021160</v>
+      </c>
+    </row>
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S34" s="65">
+        <f>S26+S28+S18</f>
+        <v>25740000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:A6"/>
@@ -3770,7 +4757,20 @@
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N10:N19"/>
+    <mergeCell ref="O10:O19"/>
+    <mergeCell ref="T10:T17"/>
+    <mergeCell ref="U10:U17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="T8" sheetId="1" r:id="rId1"/>
     <sheet name="T9" sheetId="2" r:id="rId2"/>
     <sheet name="T10" sheetId="3" r:id="rId3"/>
     <sheet name="T11" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -223,6 +224,48 @@
   </si>
   <si>
     <t>TIỀN MUA HÀNG VĂN SƠN THÁNG 10</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chốt tháng 8 công ty còn nợ anh sơn (có biên bản) </t>
+  </si>
+  <si>
+    <t>Tiền hàng tháng 9 của anh Sơn đã sau chiết khấu</t>
+  </si>
+  <si>
+    <t>Tiền hàng tháng 10 của anh Sơn đã sau chiết khấu</t>
+  </si>
+  <si>
+    <t>Tiền hàng tháng 11 của anh Sơn đã sau chiết khấu</t>
+  </si>
+  <si>
+    <t>(-)=&gt;Tiền hàng anh Sơn còn nợ công ty hết T11 (Sau CK)</t>
+  </si>
+  <si>
+    <t>(-) Anh Sơn ứng tiền tháng 9 (23/09/2020)</t>
+  </si>
+  <si>
+    <t>(-) Anh Sơn ứng tiền tháng 11 (15/11/2020: 1tr + 30/11/2020: 1tr)</t>
+  </si>
+  <si>
+    <t>(-) Tiền chi phí biển bảng ĐL Quỳnh Baby</t>
+  </si>
+  <si>
+    <t>(-) Tiền thuê xe (13tr công ty hỗ trợ 8tr)</t>
+  </si>
+  <si>
+    <t>(+) Số hoa hồng tháng 9 chưa thanh toán (Có phụ lục)</t>
+  </si>
+  <si>
+    <t>(+) Số hoa hồng tháng 10 chưa thanh toán (Có phụ lục)</t>
+  </si>
+  <si>
+    <t>(+) Số hoa hồng tháng 11 chưa thanh toán (Có phụ lục)</t>
+  </si>
+  <si>
+    <t>Công ty còn phải thanh toán cho anh Sơn</t>
   </si>
 </sst>
 </file>
@@ -234,9 +277,9 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +381,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -681,13 +744,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,189 +1076,12 @@
     <xf numFmtId="165" fontId="7" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,12 +1094,6 @@
     <xf numFmtId="165" fontId="7" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,33 +1125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,9 +1145,196 @@
     <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,19 +1344,69 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1564,13 +1719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1590,107 +1745,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="131" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119">
+      <c r="A7" s="132">
         <v>612</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="141">
         <v>44032</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="132" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1716,11 +1871,11 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1746,14 +1901,14 @@
       <c r="Q8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="113" t="s">
+      <c r="R8" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114" t="s">
+      <c r="S8" s="131"/>
+      <c r="T8" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="115"/>
+      <c r="U8" s="120"/>
       <c r="V8" s="58" t="s">
         <v>26</v>
       </c>
@@ -1762,11 +1917,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1788,10 +1943,10 @@
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="P9" s="140" t="s">
+      <c r="P9" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="113" t="s">
+      <c r="Q9" s="131" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="15">
@@ -1807,21 +1962,21 @@
         <f>S9*12%</f>
         <v>600000</v>
       </c>
-      <c r="V9" s="116">
+      <c r="V9" s="127">
         <f>200000000-S9-S10-S11-S12-S13-S14-S15-S16</f>
         <v>117000000</v>
       </c>
-      <c r="W9" s="116">
+      <c r="W9" s="127">
         <f>V9*12%</f>
         <v>14040000</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1843,8 +1998,8 @@
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="113"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
       <c r="R10" s="18">
         <v>44040</v>
       </c>
@@ -1858,15 +2013,15 @@
         <f t="shared" ref="U10:U14" si="2">S10*12%</f>
         <v>1200000</v>
       </c>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
     </row>
     <row r="11" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
@@ -1888,8 +2043,8 @@
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="113"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
       <c r="R11" s="18">
         <v>44049</v>
       </c>
@@ -1903,15 +2058,15 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
     </row>
     <row r="12" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
       <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
@@ -1933,8 +2088,8 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="113"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
       <c r="R12" s="18">
         <v>44054</v>
       </c>
@@ -1948,15 +2103,15 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
     </row>
     <row r="13" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
@@ -1978,8 +2133,8 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="113"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
       <c r="R13" s="18">
         <v>44060</v>
       </c>
@@ -1993,23 +2148,23 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
     </row>
     <row r="14" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119">
+      <c r="A14" s="132">
         <v>762</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="141">
         <v>44063</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="132" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2033,8 +2188,8 @@
         <f t="shared" ref="L14:L23" si="3">I14*(1-K14)</f>
         <v>562500</v>
       </c>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="113"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
       <c r="R14" s="18">
         <v>44068</v>
       </c>
@@ -2048,15 +2203,15 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
@@ -2078,21 +2233,21 @@
         <f t="shared" si="3"/>
         <v>2275000</v>
       </c>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="113"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
       <c r="T15" s="54"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -2114,21 +2269,21 @@
         <f t="shared" si="3"/>
         <v>1162500</v>
       </c>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="113"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24"/>
       <c r="T16" s="55"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
     </row>
     <row r="17" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
@@ -2150,8 +2305,8 @@
         <f t="shared" si="3"/>
         <v>1137500</v>
       </c>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="113"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
       <c r="R17" s="51" t="s">
         <v>36</v>
       </c>
@@ -2170,19 +2325,19 @@
       <c r="W17" s="28"/>
     </row>
     <row r="18" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119">
+      <c r="A18" s="132">
         <v>769</v>
       </c>
-      <c r="B18" s="122">
+      <c r="B18" s="141">
         <v>44068</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="144" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -2206,10 +2361,10 @@
         <f t="shared" si="3"/>
         <v>1350000</v>
       </c>
-      <c r="P18" s="134" t="s">
+      <c r="P18" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="137" t="s">
+      <c r="Q18" s="124" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="48" t="s">
@@ -2225,21 +2380,21 @@
         <f>S18*12%</f>
         <v>12000000</v>
       </c>
-      <c r="V18" s="116">
+      <c r="V18" s="127">
         <f>300000000-S18-S19-S20</f>
         <v>120000000</v>
       </c>
-      <c r="W18" s="116">
+      <c r="W18" s="127">
         <f>V18*12%</f>
         <v>14400000</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="126"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2261,8 +2416,8 @@
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="138"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="125"/>
       <c r="R19" s="49">
         <v>44064</v>
       </c>
@@ -2276,15 +2431,15 @@
         <f>S19*12%</f>
         <v>9600000</v>
       </c>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
     </row>
     <row r="20" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="126"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="11" t="s">
         <v>42</v>
       </c>
@@ -2306,21 +2461,21 @@
         <f t="shared" si="3"/>
         <v>1530000</v>
       </c>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="138"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="125"/>
       <c r="R20" s="49"/>
       <c r="S20" s="19"/>
       <c r="T20" s="17"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
     </row>
     <row r="21" spans="1:26" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="126"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="11" t="s">
         <v>43</v>
       </c>
@@ -2342,8 +2497,8 @@
         <f t="shared" si="3"/>
         <v>2910000</v>
       </c>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="139"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="126"/>
       <c r="R21" s="50" t="s">
         <v>40</v>
       </c>
@@ -2362,11 +2517,11 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="126"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="11" t="s">
         <v>32</v>
       </c>
@@ -2388,10 +2543,10 @@
         <f t="shared" si="3"/>
         <v>2475000</v>
       </c>
-      <c r="P22" s="114" t="s">
+      <c r="P22" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="115"/>
+      <c r="Q22" s="120"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="14"/>
@@ -2409,11 +2564,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="127"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
@@ -2442,14 +2597,14 @@
       <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33">
@@ -2467,82 +2622,82 @@
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="M26" s="94" t="s">
+      <c r="M26" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="153"/>
       <c r="Q26" s="35" t="s">
         <v>46</v>
       </c>
       <c r="R26" s="36">
         <v>500000</v>
       </c>
-      <c r="S26" s="103">
+      <c r="S26" s="160">
         <f>SUM(R26:R29)</f>
         <v>4888000</v>
       </c>
-      <c r="T26" s="104"/>
+      <c r="T26" s="161"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="99"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="156"/>
       <c r="Q27" s="37" t="s">
         <v>47</v>
       </c>
       <c r="R27" s="38">
         <v>400000</v>
       </c>
-      <c r="S27" s="105"/>
-      <c r="T27" s="106"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="163"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="156"/>
       <c r="Q28" s="37" t="s">
         <v>48</v>
       </c>
       <c r="R28" s="38">
         <v>100000</v>
       </c>
-      <c r="S28" s="105"/>
-      <c r="T28" s="106"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="163"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
       <c r="K29" s="39"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="102"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="159"/>
       <c r="Q29" s="37" t="s">
         <v>49</v>
       </c>
       <c r="R29" s="38">
         <v>3888000</v>
       </c>
-      <c r="S29" s="107"/>
-      <c r="T29" s="108"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="165"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -2556,45 +2711,58 @@
       <c r="I30" s="41"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
-      <c r="M30" s="110" t="s">
+      <c r="M30" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="112">
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="168">
         <v>700000</v>
       </c>
-      <c r="T30" s="112"/>
+      <c r="T30" s="168"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M31" s="90" t="s">
+      <c r="M31" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92">
+      <c r="N31" s="148"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="149">
         <f>SUM(S26:T30)</f>
         <v>5588000</v>
       </c>
-      <c r="T31" s="92"/>
+      <c r="T31" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="W9:W16"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="Q9:Q17"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="M26:P29"/>
+    <mergeCell ref="S26:T29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
     <mergeCell ref="D7:D13"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="A1:E1"/>
@@ -2611,31 +2779,18 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="W9:W16"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="Q9:Q17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V9:V16"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="M26:P29"/>
-    <mergeCell ref="S26:T29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:T30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2675,13 +2830,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2701,107 +2856,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="131" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119">
+      <c r="A7" s="132">
         <v>788</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="141">
         <v>44090</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="132" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -2829,14 +2984,14 @@
       <c r="O7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="113" t="s">
+      <c r="P7" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="114" t="s">
+      <c r="Q7" s="131"/>
+      <c r="R7" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="115"/>
+      <c r="S7" s="120"/>
       <c r="T7" s="58" t="s">
         <v>26</v>
       </c>
@@ -2845,11 +3000,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
       <c r="F8" s="44" t="s">
         <v>22</v>
       </c>
@@ -2871,10 +3026,10 @@
         <f t="shared" si="1"/>
         <v>1162500</v>
       </c>
-      <c r="N8" s="140" t="s">
+      <c r="N8" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="113" t="s">
+      <c r="O8" s="131" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="15">
@@ -2890,21 +3045,21 @@
         <f>Q8*12%</f>
         <v>600000</v>
       </c>
-      <c r="T8" s="116">
+      <c r="T8" s="127">
         <f>200000000-Q8-Q9-Q10-Q11-Q12-Q13-Q14-Q15</f>
         <v>112000000</v>
       </c>
-      <c r="U8" s="116">
+      <c r="U8" s="127">
         <f>T8*12%</f>
         <v>13440000</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="44" t="s">
         <v>42</v>
       </c>
@@ -2926,8 +3081,8 @@
         <f t="shared" si="1"/>
         <v>510000</v>
       </c>
-      <c r="N9" s="140"/>
-      <c r="O9" s="113"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="131"/>
       <c r="P9" s="18">
         <v>44040</v>
       </c>
@@ -2941,15 +3096,15 @@
         <f t="shared" ref="S9:S15" si="2">Q9*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="44" t="s">
         <v>43</v>
       </c>
@@ -2971,8 +3126,8 @@
         <f t="shared" si="1"/>
         <v>1212500</v>
       </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="113"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="131"/>
       <c r="P10" s="18">
         <v>44049</v>
       </c>
@@ -2986,8 +3141,8 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
@@ -3026,8 +3181,8 @@
         <f t="shared" ref="L11:L12" si="3">I11*(1-K11)</f>
         <v>275000</v>
       </c>
-      <c r="N11" s="140"/>
-      <c r="O11" s="113"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="131"/>
       <c r="P11" s="18">
         <v>44054</v>
       </c>
@@ -3041,8 +3196,8 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
     </row>
     <row r="12" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
@@ -3081,8 +3236,8 @@
         <f t="shared" si="3"/>
         <v>465000</v>
       </c>
-      <c r="N12" s="140"/>
-      <c r="O12" s="113"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="131"/>
       <c r="P12" s="18">
         <v>44060</v>
       </c>
@@ -3096,18 +3251,18 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33">
@@ -3120,8 +3275,8 @@
         <f>SUM(L7:L12)</f>
         <v>5445000</v>
       </c>
-      <c r="N13" s="140"/>
-      <c r="O13" s="113"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="131"/>
       <c r="P13" s="18">
         <v>44068</v>
       </c>
@@ -3135,12 +3290,12 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="140"/>
-      <c r="O14" s="113"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="131"/>
       <c r="P14" s="68">
         <v>44077</v>
       </c>
@@ -3154,12 +3309,12 @@
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="140"/>
-      <c r="O15" s="113"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="131"/>
       <c r="P15" s="71">
         <v>44085</v>
       </c>
@@ -3173,12 +3328,12 @@
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N16" s="140"/>
-      <c r="O16" s="113"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="131"/>
       <c r="P16" s="51" t="s">
         <v>36</v>
       </c>
@@ -3197,10 +3352,10 @@
       <c r="U16" s="28"/>
     </row>
     <row r="17" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N17" s="134" t="s">
+      <c r="N17" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="137" t="s">
+      <c r="O17" s="124" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -3216,18 +3371,18 @@
         <f>Q17*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T17" s="116">
+      <c r="T17" s="127">
         <f>300000000-Q17-Q18-Q19</f>
         <v>115000000</v>
       </c>
-      <c r="U17" s="116">
+      <c r="U17" s="127">
         <f>T17*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="18" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N18" s="135"/>
-      <c r="O18" s="138"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="18">
         <v>44064</v>
       </c>
@@ -3241,12 +3396,12 @@
         <f>Q18*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
     </row>
     <row r="19" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="135"/>
-      <c r="O19" s="138"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="71">
         <v>44097</v>
       </c>
@@ -3260,12 +3415,12 @@
         <f>Q19*12%</f>
         <v>600000</v>
       </c>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
     </row>
     <row r="20" spans="14:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N20" s="136"/>
-      <c r="O20" s="139"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="126"/>
       <c r="P20" s="51" t="s">
         <v>40</v>
       </c>
@@ -3284,10 +3439,10 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="114" t="s">
+      <c r="N21" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="115"/>
+      <c r="O21" s="120"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="14"/>
@@ -3308,7 +3463,7 @@
       <c r="Q23" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="S23" s="193">
+      <c r="S23" s="117">
         <v>31560000</v>
       </c>
     </row>
@@ -3316,12 +3471,34 @@
       <c r="Q24" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="193">
+      <c r="S24" s="117">
         <v>1200000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N8:N16"/>
+    <mergeCell ref="O8:O16"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="T8:T15"/>
+    <mergeCell ref="U8:U15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:A6"/>
@@ -3332,28 +3509,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="T8:T15"/>
-    <mergeCell ref="U8:U15"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N8:N16"/>
-    <mergeCell ref="O8:O16"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3382,13 +3537,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3414,56 +3569,56 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="131" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="113" t="s">
+      <c r="P4" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="114" t="s">
+      <c r="Q4" s="131"/>
+      <c r="R4" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="115"/>
+      <c r="S4" s="120"/>
       <c r="T4" s="58" t="s">
         <v>26</v>
       </c>
@@ -3472,38 +3627,38 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="140" t="s">
+      <c r="N5" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="131" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="15">
@@ -3519,34 +3674,34 @@
         <f>Q5*12%</f>
         <v>600000</v>
       </c>
-      <c r="T5" s="116">
+      <c r="T5" s="127">
         <f>200000000-Q5-Q6-Q7-Q8-Q9-Q10-Q11-Q12</f>
         <v>112000000</v>
       </c>
-      <c r="U5" s="116">
+      <c r="U5" s="127">
         <f>T5*12%</f>
         <v>13440000</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="132"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="113"/>
+      <c r="L6" s="118"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="131"/>
       <c r="P6" s="18">
         <v>44040</v>
       </c>
@@ -3560,23 +3715,23 @@
         <f t="shared" ref="S6:S12" si="0">Q6*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="119">
+      <c r="A7" s="132">
         <v>1211</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="141">
         <v>44113</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="132" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -3600,8 +3755,8 @@
         <f t="shared" ref="L7:L8" si="2">I7*(1-K7)-J7</f>
         <v>242500</v>
       </c>
-      <c r="N7" s="140"/>
-      <c r="O7" s="113"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="131"/>
       <c r="P7" s="18">
         <v>44049</v>
       </c>
@@ -3615,15 +3770,15 @@
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
       <c r="F8" s="44" t="s">
         <v>32</v>
       </c>
@@ -3645,8 +3800,8 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="N8" s="140"/>
-      <c r="O8" s="113"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="131"/>
       <c r="P8" s="18">
         <v>44054</v>
       </c>
@@ -3660,18 +3815,18 @@
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="62">
@@ -3684,8 +3839,8 @@
         <f>SUM(L7:L8)</f>
         <v>517500</v>
       </c>
-      <c r="N9" s="140"/>
-      <c r="O9" s="113"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="131"/>
       <c r="P9" s="18">
         <v>44060</v>
       </c>
@@ -3699,12 +3854,12 @@
         <f t="shared" si="0"/>
         <v>960000</v>
       </c>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N10" s="140"/>
-      <c r="O10" s="113"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="131"/>
       <c r="P10" s="18">
         <v>44068</v>
       </c>
@@ -3718,12 +3873,12 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="140"/>
-      <c r="O11" s="113"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="131"/>
       <c r="P11" s="86">
         <v>44077</v>
       </c>
@@ -3737,12 +3892,12 @@
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N12" s="140"/>
-      <c r="O12" s="113"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="131"/>
       <c r="P12" s="88">
         <v>44085</v>
       </c>
@@ -3756,12 +3911,12 @@
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N13" s="140"/>
-      <c r="O13" s="113"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="131"/>
       <c r="P13" s="51" t="s">
         <v>36</v>
       </c>
@@ -3780,10 +3935,10 @@
       <c r="U13" s="28"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="134" t="s">
+      <c r="N14" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="137" t="s">
+      <c r="O14" s="124" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="48" t="s">
@@ -3799,18 +3954,18 @@
         <f>Q14*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T14" s="116">
+      <c r="T14" s="127">
         <f>300000000-Q14-Q15-Q16</f>
         <v>115000000</v>
       </c>
-      <c r="U14" s="116">
+      <c r="U14" s="127">
         <f>T14*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="135"/>
-      <c r="O15" s="138"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="125"/>
       <c r="P15" s="49">
         <v>44064</v>
       </c>
@@ -3824,12 +3979,12 @@
         <f>Q15*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N16" s="135"/>
-      <c r="O16" s="138"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="82">
         <v>44097</v>
       </c>
@@ -3843,12 +3998,12 @@
         <f>Q16*12%</f>
         <v>600000</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
     </row>
     <row r="17" spans="14:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N17" s="136"/>
-      <c r="O17" s="139"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="126"/>
       <c r="P17" s="50" t="s">
         <v>40</v>
       </c>
@@ -3867,10 +4022,10 @@
       <c r="U17" s="66"/>
     </row>
     <row r="18" spans="14:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="140" t="s">
+      <c r="N18" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="140" t="s">
+      <c r="O18" s="130" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="75">
@@ -3886,18 +4041,18 @@
         <f>Q18*R18</f>
         <v>5321160</v>
       </c>
-      <c r="T18" s="141">
+      <c r="T18" s="169">
         <f>107462600-Q18-Q19</f>
         <v>18338600</v>
       </c>
-      <c r="U18" s="143">
+      <c r="U18" s="171">
         <f>T18*12%</f>
         <v>2200632</v>
       </c>
     </row>
     <row r="19" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
       <c r="P19" s="75">
         <v>44132</v>
       </c>
@@ -3911,12 +4066,12 @@
         <f>Q19*R19</f>
         <v>2700000</v>
       </c>
-      <c r="T19" s="142"/>
-      <c r="U19" s="144"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="172"/>
     </row>
     <row r="20" spans="14:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
       <c r="P20" s="50" t="s">
         <v>53</v>
       </c>
@@ -3927,7 +4082,7 @@
       <c r="R20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="145">
+      <c r="S20" s="90">
         <f>SUM(S18:S19)</f>
         <v>8021160</v>
       </c>
@@ -3935,10 +4090,10 @@
       <c r="U20" s="67"/>
     </row>
     <row r="21" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="114" t="s">
+      <c r="N21" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="115"/>
+      <c r="O21" s="120"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="14"/>
@@ -3962,7 +4117,7 @@
       <c r="Q24" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="S24" s="193">
+      <c r="S24" s="117">
         <v>31560000</v>
       </c>
     </row>
@@ -3970,7 +4125,7 @@
       <c r="Q25" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="S25" s="193">
+      <c r="S25" s="117">
         <v>1200000</v>
       </c>
     </row>
@@ -3978,22 +4133,22 @@
       <c r="Q26" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="S26" s="193">
+      <c r="S26" s="117">
         <v>8021160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N5:N13"/>
+    <mergeCell ref="O5:O13"/>
+    <mergeCell ref="T5:T12"/>
     <mergeCell ref="U5:U12"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="N14:N17"/>
@@ -4010,16 +4165,16 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N5:N13"/>
-    <mergeCell ref="O5:O13"/>
-    <mergeCell ref="T5:T12"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4027,10 +4182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="G26" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,13 +4202,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4079,166 +4234,166 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="131" t="s">
+      <c r="E4" s="137"/>
+      <c r="F4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132" t="s">
+      <c r="K5" s="140"/>
+      <c r="L5" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="60" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="132"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="146">
+      <c r="A7" s="175">
         <v>1249</v>
       </c>
-      <c r="B7" s="147">
+      <c r="B7" s="177">
         <v>44155</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="148" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="148">
+      <c r="G7" s="91">
         <v>24</v>
       </c>
-      <c r="H7" s="149">
+      <c r="H7" s="92">
         <v>235000</v>
       </c>
-      <c r="I7" s="149">
+      <c r="I7" s="92">
         <f t="shared" ref="I7:I8" si="0">G7*H7</f>
         <v>5640000</v>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150">
+      <c r="J7" s="92"/>
+      <c r="K7" s="93">
         <v>0.41</v>
       </c>
-      <c r="L7" s="149">
+      <c r="L7" s="92">
         <f t="shared" ref="L7:L8" si="1">I7*(1-K7)</f>
         <v>3327600.0000000005</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="148" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="91">
         <v>8</v>
       </c>
-      <c r="H8" s="149">
+      <c r="H8" s="92">
         <v>465000</v>
       </c>
-      <c r="I8" s="149">
+      <c r="I8" s="92">
         <f t="shared" si="0"/>
         <v>3720000</v>
       </c>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150">
+      <c r="J8" s="92"/>
+      <c r="K8" s="93">
         <v>0.41</v>
       </c>
-      <c r="L8" s="149">
+      <c r="L8" s="92">
         <f t="shared" si="1"/>
         <v>2194800.0000000005</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="62">
@@ -4255,18 +4410,18 @@
       <c r="O9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="113" t="s">
+      <c r="P9" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="114" t="s">
+      <c r="Q9" s="131"/>
+      <c r="R9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="115"/>
-      <c r="T9" s="153" t="s">
+      <c r="S9" s="120"/>
+      <c r="T9" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="153" t="s">
+      <c r="U9" s="94" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4290,13 +4445,13 @@
         <f>Q10*12%</f>
         <v>600000</v>
       </c>
-      <c r="T10" s="170">
-        <f>200000000-Q10-Q11-Q12-Q13-Q14-Q15-Q16-Q17-Q18</f>
-        <v>105000000</v>
-      </c>
-      <c r="U10" s="170">
+      <c r="T10" s="182">
+        <f>200000000-Q10-Q11-Q12-Q13-Q14-Q15-Q16-Q17-Q18-Q19</f>
+        <v>65000000</v>
+      </c>
+      <c r="U10" s="182">
         <f>T10*12%</f>
-        <v>12600000</v>
+        <v>7800000</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4312,11 +4467,11 @@
         <v>0.12</v>
       </c>
       <c r="S11" s="19">
-        <f t="shared" ref="S11:S18" si="2">Q11*12%</f>
+        <f t="shared" ref="S11:S19" si="2">Q11*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N12" s="185"/>
@@ -4334,8 +4489,8 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N13" s="185"/>
@@ -4353,8 +4508,8 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N14" s="185"/>
@@ -4372,8 +4527,8 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="T14" s="171"/>
-      <c r="U14" s="171"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N15" s="185"/>
@@ -4391,8 +4546,8 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
+      <c r="T15" s="183"/>
+      <c r="U15" s="183"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N16" s="185"/>
@@ -4410,8 +4565,8 @@
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
-      <c r="T16" s="171"/>
-      <c r="U16" s="171"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N17" s="185"/>
@@ -4429,325 +4584,337 @@
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="T17" s="172"/>
-      <c r="U17" s="172"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N18" s="185"/>
       <c r="O18" s="185"/>
-      <c r="P18" s="155">
+      <c r="P18" s="96">
         <v>44137</v>
       </c>
-      <c r="Q18" s="156">
+      <c r="Q18" s="97">
         <v>7000000</v>
       </c>
-      <c r="R18" s="157">
+      <c r="R18" s="193">
         <v>0.12</v>
       </c>
-      <c r="S18" s="158">
+      <c r="S18" s="194">
         <f t="shared" si="2"/>
         <v>840000</v>
       </c>
-      <c r="T18" s="190" t="s">
+      <c r="T18" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="154"/>
-    </row>
-    <row r="19" spans="9:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="U18" s="95"/>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
       <c r="N19" s="185"/>
       <c r="O19" s="185"/>
-      <c r="P19" s="51" t="s">
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97">
+        <v>40000000</v>
+      </c>
+      <c r="R19" s="193">
+        <v>0.12</v>
+      </c>
+      <c r="S19" s="194">
+        <f t="shared" si="2"/>
+        <v>4800000</v>
+      </c>
+      <c r="T19" s="192"/>
+      <c r="U19" s="95"/>
+    </row>
+    <row r="20" spans="9:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N20" s="185"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="52">
-        <f>SUM(Q10:Q18)</f>
-        <v>95000000</v>
-      </c>
-      <c r="R19" s="53" t="s">
+      <c r="Q20" s="52">
+        <f>SUM(Q10:Q19)</f>
+        <v>135000000</v>
+      </c>
+      <c r="R20" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="27">
-        <f>SUM(S10:S18)</f>
-        <v>11400000</v>
-      </c>
-      <c r="T19" s="191"/>
-      <c r="U19" s="28"/>
-    </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N20" s="186" t="s">
+      <c r="S20" s="27">
+        <f>SUM(S10:S19)</f>
+        <v>16200000</v>
+      </c>
+      <c r="T20" s="174"/>
+      <c r="U20" s="28"/>
+    </row>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N21" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="186" t="s">
+      <c r="O21" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="P21" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q21" s="16">
         <v>100000000</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R21" s="17">
         <v>0.12</v>
       </c>
-      <c r="S20" s="16">
-        <f>Q20*12%</f>
+      <c r="S21" s="16">
+        <f>Q21*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T20" s="170">
-        <f>300000000-Q20-Q21-Q22</f>
+      <c r="T21" s="182">
+        <f>300000000-Q21-Q22-Q23</f>
         <v>115000000</v>
       </c>
-      <c r="U20" s="170">
-        <f>T20*12%</f>
+      <c r="U21" s="182">
+        <f>T21*12%</f>
         <v>13800000</v>
       </c>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="49">
+    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="49">
         <v>44064</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q22" s="19">
         <v>80000000</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R22" s="54">
         <v>0.12</v>
       </c>
-      <c r="S21" s="19">
-        <f>Q21*12%</f>
+      <c r="S22" s="19">
+        <f>Q22*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T21" s="171"/>
-      <c r="U21" s="171"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="82">
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="82">
         <v>44097</v>
       </c>
-      <c r="Q22" s="83">
+      <c r="Q23" s="83">
         <v>5000000</v>
       </c>
-      <c r="R22" s="84">
+      <c r="R23" s="84">
         <v>0.12</v>
       </c>
-      <c r="S22" s="85">
-        <f>Q22*12%</f>
+      <c r="S23" s="85">
+        <f>Q23*12%</f>
         <v>600000</v>
       </c>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-    </row>
-    <row r="23" spans="9:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N23" s="188"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="50" t="s">
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+    </row>
+    <row r="24" spans="9:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="25">
-        <f>SUM(Q20:Q22)</f>
+      <c r="Q24" s="25">
+        <f>SUM(Q21:Q23)</f>
         <v>185000000</v>
       </c>
-      <c r="R23" s="26" t="s">
+      <c r="R24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="74">
-        <f>SUM(S20:S22)</f>
+      <c r="S24" s="74">
+        <f>SUM(S21:S23)</f>
         <v>22200000</v>
       </c>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-    </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N24" s="185" t="s">
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+    </row>
+    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N25" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="185" t="s">
+      <c r="O25" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="159">
+      <c r="P25" s="98">
         <v>44125</v>
       </c>
-      <c r="Q24" s="162">
+      <c r="Q25" s="101">
         <v>59124000</v>
       </c>
-      <c r="R24" s="163">
+      <c r="R25" s="102">
         <v>0.09</v>
       </c>
-      <c r="S24" s="160">
-        <f>Q24*R24</f>
+      <c r="S25" s="99">
+        <f>Q25*R25</f>
         <v>5321160</v>
       </c>
-      <c r="T24" s="173">
-        <f>107462600-Q24-Q25-Q26</f>
+      <c r="T25" s="186">
+        <f>107462600-Q25-Q26-Q27</f>
         <v>8338600</v>
       </c>
-      <c r="U24" s="174">
-        <f>T24*9%</f>
+      <c r="U25" s="189">
+        <f>T25*9%</f>
         <v>750474</v>
       </c>
     </row>
-    <row r="25" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="159">
-        <v>44132</v>
-      </c>
-      <c r="Q25" s="160">
-        <v>30000000</v>
-      </c>
-      <c r="R25" s="164">
-        <v>0.09</v>
-      </c>
-      <c r="S25" s="161">
-        <f>Q25*R25</f>
-        <v>2700000</v>
-      </c>
-      <c r="T25" s="175"/>
-      <c r="U25" s="176"/>
-    </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I26" s="65"/>
       <c r="N26" s="185"/>
       <c r="O26" s="185"/>
-      <c r="P26" s="165">
-        <v>44160</v>
-      </c>
-      <c r="Q26" s="166">
-        <v>10000000</v>
-      </c>
-      <c r="R26" s="167">
+      <c r="P26" s="98">
+        <v>44132</v>
+      </c>
+      <c r="Q26" s="99">
+        <v>30000000</v>
+      </c>
+      <c r="R26" s="103">
         <v>0.09</v>
       </c>
-      <c r="S26" s="168">
+      <c r="S26" s="100">
         <f>Q26*R26</f>
-        <v>900000</v>
-      </c>
-      <c r="T26" s="177"/>
-      <c r="U26" s="178"/>
-    </row>
-    <row r="27" spans="9:21" ht="45" x14ac:dyDescent="0.25">
+        <v>2700000</v>
+      </c>
+      <c r="T26" s="187"/>
+      <c r="U26" s="190"/>
+    </row>
+    <row r="27" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I27" s="65"/>
       <c r="N27" s="185"/>
       <c r="O27" s="185"/>
-      <c r="P27" s="50" t="s">
+      <c r="P27" s="104">
+        <v>44160</v>
+      </c>
+      <c r="Q27" s="105">
+        <v>10000000</v>
+      </c>
+      <c r="R27" s="106">
+        <v>0.09</v>
+      </c>
+      <c r="S27" s="107">
+        <f>Q27*R27</f>
+        <v>900000</v>
+      </c>
+      <c r="T27" s="188"/>
+      <c r="U27" s="191"/>
+    </row>
+    <row r="28" spans="9:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="25">
-        <f>Q24+Q25+Q26</f>
+      <c r="Q28" s="25">
+        <f>Q25+Q26+Q27</f>
         <v>99124000</v>
       </c>
-      <c r="R27" s="26" t="s">
+      <c r="R28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="145">
-        <f>SUM(S24:S26)</f>
+      <c r="S28" s="90">
+        <f>SUM(S25:S27)</f>
         <v>8921160</v>
       </c>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-    </row>
-    <row r="28" spans="9:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N28" s="192" t="s">
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+    </row>
+    <row r="29" spans="9:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="192" t="s">
+      <c r="O29" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="179" t="s">
+      <c r="P29" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" s="180">
+      <c r="Q29" s="110">
         <v>200000000</v>
       </c>
-      <c r="R28" s="182">
+      <c r="R29" s="112">
         <v>0.12</v>
       </c>
-      <c r="S28" s="181">
-        <f>Q28*R28</f>
+      <c r="S29" s="111">
+        <f>Q29*R29</f>
         <v>24000000</v>
       </c>
-      <c r="T28" s="183">
+      <c r="T29" s="113">
         <v>0</v>
       </c>
-      <c r="U28" s="184">
+      <c r="U29" s="114">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N29" s="114" t="s">
+    <row r="30" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="N30" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="115"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="30">
-        <f>S19+S23+S27</f>
-        <v>42521160</v>
-      </c>
-      <c r="T29" s="189">
-        <f>SUM(T10:T27)</f>
-        <v>228338600</v>
-      </c>
-      <c r="U29" s="169">
-        <f>SUM(U10:U28)</f>
-        <v>27150474</v>
-      </c>
-    </row>
-    <row r="31" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="Q31" t="s">
-        <v>60</v>
-      </c>
-      <c r="S31" s="65">
-        <f>SUM(S10:S15)+SUM(S20:S21)</f>
-        <v>31560000</v>
+      <c r="O30" s="120"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="30">
+        <f>S20+S24+S28</f>
+        <v>47321160</v>
+      </c>
+      <c r="T30" s="115">
+        <f>SUM(T10:T28)</f>
+        <v>188338600</v>
+      </c>
+      <c r="U30" s="108">
+        <f>SUM(U10:U29)</f>
+        <v>22350474</v>
       </c>
     </row>
     <row r="32" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S32" s="65">
-        <f>S16+S17+S22</f>
-        <v>1200000</v>
+        <f>SUM(S10:S15)+SUM(S21:S22)</f>
+        <v>31560000</v>
       </c>
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S33" s="65">
-        <f>S24+S25</f>
-        <v>8021160</v>
+        <f>S16+S17+S23</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q34" t="s">
+        <v>62</v>
+      </c>
+      <c r="S34" s="65">
+        <f>S25+S26</f>
+        <v>8021160</v>
+      </c>
+    </row>
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
         <v>63</v>
       </c>
-      <c r="S34" s="65">
-        <f>S26+S28+S18</f>
-        <v>25740000</v>
+      <c r="S35" s="65">
+        <f>S27+S29+S18+S19</f>
+        <v>30540000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="U10:U17"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:A6"/>
@@ -4757,21 +4924,160 @@
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="N10:N20"/>
+    <mergeCell ref="O10:O20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="N10:N19"/>
-    <mergeCell ref="O10:O19"/>
     <mergeCell ref="T10:T17"/>
-    <mergeCell ref="U10:U17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H8:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="195" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="197" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="198">
+        <v>4782500</v>
+      </c>
+    </row>
+    <row r="11" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="198">
+        <v>5445000</v>
+      </c>
+    </row>
+    <row r="12" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="197" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="198">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="13" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="198">
+        <v>5522400</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="200">
+        <v>6702400</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="199" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="200">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="16" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="199" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="200">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="199" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="200">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="199" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="200">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="197" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="198">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="197" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="198">
+        <v>8021160</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="197" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="198">
+        <v>30540000</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="201" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="202">
+        <f>I21+I20+I19-I14-I15-I16-I17-I18</f>
+        <v>3058760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Văn Sơn/Đơn hàng.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="T8" sheetId="1" r:id="rId1"/>
     <sheet name="T9" sheetId="2" r:id="rId2"/>
     <sheet name="T10" sheetId="3" r:id="rId3"/>
     <sheet name="T11" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="T1" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="96">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -187,9 +188,6 @@
     <t>Tổng chị Bởi đã thanh toán</t>
   </si>
   <si>
-    <t>ĐL Quỳnh Baby 200tr 38%</t>
-  </si>
-  <si>
     <t>Đại lý chị Bởi 41% đơn hàng 107.462.600</t>
   </si>
   <si>
@@ -250,9 +248,6 @@
     <t>(-) Anh Sơn ứng tiền tháng 11 (15/11/2020: 1tr + 30/11/2020: 1tr)</t>
   </si>
   <si>
-    <t>(-) Tiền chi phí biển bảng ĐL Quỳnh Baby</t>
-  </si>
-  <si>
     <t>(-) Tiền thuê xe (13tr công ty hỗ trợ 8tr)</t>
   </si>
   <si>
@@ -266,6 +261,57 @@
   </si>
   <si>
     <t>Công ty còn phải thanh toán cho anh Sơn</t>
+  </si>
+  <si>
+    <t>ĐL Quỳnh Baby 200tr 38%, 31.094.000</t>
+  </si>
+  <si>
+    <t>Xanh cây</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>vàng</t>
+  </si>
+  <si>
+    <t>xám</t>
+  </si>
+  <si>
+    <t>hồng</t>
+  </si>
+  <si>
+    <t>HH T1 chưa TT</t>
+  </si>
+  <si>
+    <t>Đại Lý Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Hoa hồng</t>
+  </si>
+  <si>
+    <t>(-)Ứng hoa hồng bà quê</t>
+  </si>
+  <si>
+    <t>(-)Tiền xe T1</t>
+  </si>
+  <si>
+    <t>Hợp đồng Đại lý Quỳnh Baby</t>
+  </si>
+  <si>
+    <t>Chi phí Biển bảng</t>
+  </si>
+  <si>
+    <t>Chi phí Kệ sữa</t>
+  </si>
+  <si>
+    <t>Hỗ trợ tiền ăn khai trương</t>
+  </si>
+  <si>
+    <t>10 phần quà khai trương (Trung bình 465.000đ/1 hộp)</t>
+  </si>
+  <si>
+    <t>(+) Tiền sữa công ty thu ở Đl Quỳnh Baby</t>
   </si>
 </sst>
 </file>
@@ -396,7 +442,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +515,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF571DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -809,13 +861,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1148,13 +1257,157 @@
     <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,117 +1447,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1317,9 +1459,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,77 +1519,36 @@
     <xf numFmtId="167" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="13" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="13" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1415,6 +1558,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF571DC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1719,13 +1867,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1745,107 +1893,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="166"/>
+      <c r="L5" s="165" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="118"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132">
+      <c r="A7" s="129">
         <v>612</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="132">
         <v>44032</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="129" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1871,11 +2019,11 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1901,14 +2049,14 @@
       <c r="Q8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="131" t="s">
+      <c r="R8" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="131"/>
-      <c r="T8" s="119" t="s">
+      <c r="S8" s="179"/>
+      <c r="T8" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="120"/>
+      <c r="U8" s="168"/>
       <c r="V8" s="58" t="s">
         <v>26</v>
       </c>
@@ -1917,11 +2065,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1943,10 +2091,10 @@
         <f t="shared" si="1"/>
         <v>2850000</v>
       </c>
-      <c r="P9" s="130" t="s">
+      <c r="P9" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="Q9" s="179" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="15">
@@ -1962,21 +2110,21 @@
         <f>S9*12%</f>
         <v>600000</v>
       </c>
-      <c r="V9" s="127">
+      <c r="V9" s="175">
         <f>200000000-S9-S10-S11-S12-S13-S14-S15-S16</f>
         <v>117000000</v>
       </c>
-      <c r="W9" s="127">
+      <c r="W9" s="175">
         <f>V9*12%</f>
         <v>14040000</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
@@ -1998,8 +2146,8 @@
         <f t="shared" si="1"/>
         <v>2910000</v>
       </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="131"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="179"/>
       <c r="R10" s="18">
         <v>44040</v>
       </c>
@@ -2013,15 +2161,15 @@
         <f t="shared" ref="U10:U14" si="2">S10*12%</f>
         <v>1200000</v>
       </c>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
     </row>
     <row r="11" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
@@ -2043,8 +2191,8 @@
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="131"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="179"/>
       <c r="R11" s="18">
         <v>44049</v>
       </c>
@@ -2058,15 +2206,15 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
     </row>
     <row r="12" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="11" t="s">
         <v>33</v>
       </c>
@@ -2088,8 +2236,8 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="179"/>
       <c r="R12" s="18">
         <v>44054</v>
       </c>
@@ -2103,15 +2251,15 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
     </row>
     <row r="13" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
@@ -2133,8 +2281,8 @@
         <f t="shared" si="1"/>
         <v>2730000</v>
       </c>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="179"/>
       <c r="R13" s="18">
         <v>44060</v>
       </c>
@@ -2148,23 +2296,23 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
     </row>
     <row r="14" spans="1:23" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132">
+      <c r="A14" s="129">
         <v>762</v>
       </c>
-      <c r="B14" s="141">
+      <c r="B14" s="132">
         <v>44063</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="E14" s="129" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2188,8 +2336,8 @@
         <f t="shared" ref="L14:L23" si="3">I14*(1-K14)</f>
         <v>562500</v>
       </c>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
+      <c r="P14" s="178"/>
+      <c r="Q14" s="179"/>
       <c r="R14" s="18">
         <v>44068</v>
       </c>
@@ -2203,15 +2351,15 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
@@ -2233,21 +2381,21 @@
         <f t="shared" si="3"/>
         <v>2275000</v>
       </c>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="179"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
       <c r="T15" s="54"/>
       <c r="U15" s="19"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
@@ -2269,21 +2417,21 @@
         <f t="shared" si="3"/>
         <v>1162500</v>
       </c>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
+      <c r="P16" s="178"/>
+      <c r="Q16" s="179"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24"/>
       <c r="T16" s="55"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="129"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
     </row>
     <row r="17" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
@@ -2305,8 +2453,8 @@
         <f t="shared" si="3"/>
         <v>1137500</v>
       </c>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="131"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="179"/>
       <c r="R17" s="51" t="s">
         <v>36</v>
       </c>
@@ -2325,19 +2473,19 @@
       <c r="W17" s="28"/>
     </row>
     <row r="18" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="132">
+      <c r="A18" s="129">
         <v>769</v>
       </c>
-      <c r="B18" s="141">
+      <c r="B18" s="132">
         <v>44068</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="132" t="s">
+      <c r="D18" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="158" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -2361,10 +2509,10 @@
         <f t="shared" si="3"/>
         <v>1350000</v>
       </c>
-      <c r="P18" s="121" t="s">
+      <c r="P18" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="124" t="s">
+      <c r="Q18" s="172" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="48" t="s">
@@ -2380,21 +2528,21 @@
         <f>S18*12%</f>
         <v>12000000</v>
       </c>
-      <c r="V18" s="127">
+      <c r="V18" s="175">
         <f>300000000-S18-S19-S20</f>
         <v>120000000</v>
       </c>
-      <c r="W18" s="127">
+      <c r="W18" s="175">
         <f>V18*12%</f>
         <v>14400000</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="145"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="159"/>
       <c r="F19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2416,8 +2564,8 @@
         <f t="shared" si="3"/>
         <v>2730000</v>
       </c>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="125"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="173"/>
       <c r="R19" s="49">
         <v>44064</v>
       </c>
@@ -2431,15 +2579,15 @@
         <f>S19*12%</f>
         <v>9600000</v>
       </c>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
     </row>
     <row r="20" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="145"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="159"/>
       <c r="F20" s="11" t="s">
         <v>42</v>
       </c>
@@ -2461,21 +2609,21 @@
         <f t="shared" si="3"/>
         <v>1530000</v>
       </c>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="125"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="173"/>
       <c r="R20" s="49"/>
       <c r="S20" s="19"/>
       <c r="T20" s="17"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
     </row>
     <row r="21" spans="1:26" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="145"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="159"/>
       <c r="F21" s="11" t="s">
         <v>43</v>
       </c>
@@ -2497,8 +2645,8 @@
         <f t="shared" si="3"/>
         <v>2910000</v>
       </c>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="126"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="174"/>
       <c r="R21" s="50" t="s">
         <v>40</v>
       </c>
@@ -2517,11 +2665,11 @@
       <c r="W21" s="28"/>
     </row>
     <row r="22" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="145"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="159"/>
       <c r="F22" s="11" t="s">
         <v>32</v>
       </c>
@@ -2543,10 +2691,10 @@
         <f t="shared" si="3"/>
         <v>2475000</v>
       </c>
-      <c r="P22" s="119" t="s">
+      <c r="P22" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="120"/>
+      <c r="Q22" s="168"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="14"/>
@@ -2564,11 +2712,11 @@
       </c>
     </row>
     <row r="23" spans="1:26" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="146"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="160"/>
       <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
@@ -2597,14 +2745,14 @@
       <c r="Z23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33">
@@ -2622,82 +2770,82 @@
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="M26" s="151" t="s">
+      <c r="M26" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="153"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="141"/>
       <c r="Q26" s="35" t="s">
         <v>46</v>
       </c>
       <c r="R26" s="36">
         <v>500000</v>
       </c>
-      <c r="S26" s="160">
+      <c r="S26" s="148">
         <f>SUM(R26:R29)</f>
         <v>4888000</v>
       </c>
-      <c r="T26" s="161"/>
+      <c r="T26" s="149"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="156"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="144"/>
       <c r="Q27" s="37" t="s">
         <v>47</v>
       </c>
       <c r="R27" s="38">
         <v>400000</v>
       </c>
-      <c r="S27" s="162"/>
-      <c r="T27" s="163"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="151"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="156"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="144"/>
       <c r="Q28" s="37" t="s">
         <v>48</v>
       </c>
       <c r="R28" s="38">
         <v>100000</v>
       </c>
-      <c r="S28" s="162"/>
-      <c r="T28" s="163"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="151"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
       <c r="K29" s="39"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="147"/>
       <c r="Q29" s="37" t="s">
         <v>49</v>
       </c>
       <c r="R29" s="38">
         <v>3888000</v>
       </c>
-      <c r="S29" s="164"/>
-      <c r="T29" s="165"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="153"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -2711,36 +2859,70 @@
       <c r="I30" s="41"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
-      <c r="M30" s="166" t="s">
+      <c r="M30" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="167"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="168">
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="157">
         <v>700000</v>
       </c>
-      <c r="T30" s="168"/>
+      <c r="T30" s="157"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="M31" s="147" t="s">
+      <c r="M31" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="149">
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="137">
         <f>SUM(S26:T30)</f>
         <v>5588000</v>
       </c>
-      <c r="T31" s="149"/>
+      <c r="T31" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="Q18:Q21"/>
+    <mergeCell ref="W9:W16"/>
+    <mergeCell ref="P9:P17"/>
+    <mergeCell ref="Q9:Q17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V9:V16"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="C7:C13"/>
@@ -2757,40 +2939,6 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="Q18:Q21"/>
-    <mergeCell ref="W9:W16"/>
-    <mergeCell ref="P9:P17"/>
-    <mergeCell ref="Q9:Q17"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V9:V16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2830,13 +2978,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2856,107 +3004,107 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="166"/>
+      <c r="L5" s="165" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="118"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132">
+      <c r="A7" s="129">
         <v>788</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="132">
         <v>44090</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="129" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -2984,14 +3132,14 @@
       <c r="O7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="131" t="s">
+      <c r="P7" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="119" t="s">
+      <c r="Q7" s="179"/>
+      <c r="R7" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="120"/>
+      <c r="S7" s="168"/>
       <c r="T7" s="58" t="s">
         <v>26</v>
       </c>
@@ -3000,11 +3148,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="44" t="s">
         <v>22</v>
       </c>
@@ -3026,10 +3174,10 @@
         <f t="shared" si="1"/>
         <v>1162500</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="N8" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="131" t="s">
+      <c r="O8" s="179" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="15">
@@ -3045,21 +3193,21 @@
         <f>Q8*12%</f>
         <v>600000</v>
       </c>
-      <c r="T8" s="127">
+      <c r="T8" s="175">
         <f>200000000-Q8-Q9-Q10-Q11-Q12-Q13-Q14-Q15</f>
         <v>112000000</v>
       </c>
-      <c r="U8" s="127">
+      <c r="U8" s="175">
         <f>T8*12%</f>
         <v>13440000</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="44" t="s">
         <v>42</v>
       </c>
@@ -3081,8 +3229,8 @@
         <f t="shared" si="1"/>
         <v>510000</v>
       </c>
-      <c r="N9" s="130"/>
-      <c r="O9" s="131"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="179"/>
       <c r="P9" s="18">
         <v>44040</v>
       </c>
@@ -3096,15 +3244,15 @@
         <f t="shared" ref="S9:S15" si="2">Q9*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
     </row>
     <row r="10" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="44" t="s">
         <v>43</v>
       </c>
@@ -3126,8 +3274,8 @@
         <f t="shared" si="1"/>
         <v>1212500</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="131"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="179"/>
       <c r="P10" s="18">
         <v>44049</v>
       </c>
@@ -3141,8 +3289,8 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
     </row>
     <row r="11" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
@@ -3181,8 +3329,8 @@
         <f t="shared" ref="L11:L12" si="3">I11*(1-K11)</f>
         <v>275000</v>
       </c>
-      <c r="N11" s="130"/>
-      <c r="O11" s="131"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="179"/>
       <c r="P11" s="18">
         <v>44054</v>
       </c>
@@ -3196,8 +3344,8 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
     </row>
     <row r="12" spans="1:21" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
@@ -3236,8 +3384,8 @@
         <f t="shared" si="3"/>
         <v>465000</v>
       </c>
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="179"/>
       <c r="P12" s="18">
         <v>44060</v>
       </c>
@@ -3251,18 +3399,18 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33">
@@ -3275,8 +3423,8 @@
         <f>SUM(L7:L12)</f>
         <v>5445000</v>
       </c>
-      <c r="N13" s="130"/>
-      <c r="O13" s="131"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="179"/>
       <c r="P13" s="18">
         <v>44068</v>
       </c>
@@ -3290,12 +3438,12 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="130"/>
-      <c r="O14" s="131"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="179"/>
       <c r="P14" s="68">
         <v>44077</v>
       </c>
@@ -3309,12 +3457,12 @@
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="130"/>
-      <c r="O15" s="131"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="179"/>
       <c r="P15" s="71">
         <v>44085</v>
       </c>
@@ -3328,12 +3476,12 @@
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N16" s="130"/>
-      <c r="O16" s="131"/>
+      <c r="N16" s="178"/>
+      <c r="O16" s="179"/>
       <c r="P16" s="51" t="s">
         <v>36</v>
       </c>
@@ -3352,10 +3500,10 @@
       <c r="U16" s="28"/>
     </row>
     <row r="17" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N17" s="121" t="s">
+      <c r="N17" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="124" t="s">
+      <c r="O17" s="172" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -3371,18 +3519,18 @@
         <f>Q17*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T17" s="127">
+      <c r="T17" s="175">
         <f>300000000-Q17-Q18-Q19</f>
         <v>115000000</v>
       </c>
-      <c r="U17" s="127">
+      <c r="U17" s="175">
         <f>T17*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="18" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N18" s="122"/>
-      <c r="O18" s="125"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="173"/>
       <c r="P18" s="18">
         <v>44064</v>
       </c>
@@ -3396,12 +3544,12 @@
         <f>Q18*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
     </row>
     <row r="19" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="122"/>
-      <c r="O19" s="125"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="173"/>
       <c r="P19" s="71">
         <v>44097</v>
       </c>
@@ -3415,12 +3563,12 @@
         <f>Q19*12%</f>
         <v>600000</v>
       </c>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
     </row>
     <row r="20" spans="14:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N20" s="123"/>
-      <c r="O20" s="126"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="174"/>
       <c r="P20" s="51" t="s">
         <v>40</v>
       </c>
@@ -3439,10 +3587,10 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="119" t="s">
+      <c r="N21" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="168"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="14"/>
@@ -3461,27 +3609,39 @@
     </row>
     <row r="23" spans="14:21" x14ac:dyDescent="0.25">
       <c r="Q23" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="117">
+        <v>59</v>
+      </c>
+      <c r="S23" s="116">
         <v>31560000</v>
       </c>
     </row>
     <row r="24" spans="14:21" x14ac:dyDescent="0.25">
       <c r="Q24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="117">
+        <v>60</v>
+      </c>
+      <c r="S24" s="116">
         <v>1200000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="T8:T15"/>
+    <mergeCell ref="U8:U15"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
@@ -3492,23 +3652,11 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="T8:T15"/>
-    <mergeCell ref="U8:U15"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3537,13 +3685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3569,56 +3717,56 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
+      <c r="A3" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="131" t="s">
+      <c r="P4" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="119" t="s">
+      <c r="Q4" s="179"/>
+      <c r="R4" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="120"/>
+      <c r="S4" s="168"/>
       <c r="T4" s="58" t="s">
         <v>26</v>
       </c>
@@ -3627,38 +3775,38 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="166"/>
+      <c r="L5" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="130" t="s">
+      <c r="N5" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="131" t="s">
+      <c r="O5" s="179" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="15">
@@ -3674,34 +3822,34 @@
         <f>Q5*12%</f>
         <v>600000</v>
       </c>
-      <c r="T5" s="127">
+      <c r="T5" s="175">
         <f>200000000-Q5-Q6-Q7-Q8-Q9-Q10-Q11-Q12</f>
         <v>112000000</v>
       </c>
-      <c r="U5" s="127">
+      <c r="U5" s="175">
         <f>T5*12%</f>
         <v>13440000</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="118"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="131"/>
+      <c r="L6" s="165"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="179"/>
       <c r="P6" s="18">
         <v>44040</v>
       </c>
@@ -3715,23 +3863,23 @@
         <f t="shared" ref="S6:S12" si="0">Q6*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="132">
+      <c r="A7" s="129">
         <v>1211</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="132">
         <v>44113</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="129" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -3755,8 +3903,8 @@
         <f t="shared" ref="L7:L8" si="2">I7*(1-K7)-J7</f>
         <v>242500</v>
       </c>
-      <c r="N7" s="130"/>
-      <c r="O7" s="131"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="179"/>
       <c r="P7" s="18">
         <v>44049</v>
       </c>
@@ -3770,15 +3918,15 @@
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="44" t="s">
         <v>32</v>
       </c>
@@ -3800,8 +3948,8 @@
         <f t="shared" si="2"/>
         <v>275000</v>
       </c>
-      <c r="N8" s="130"/>
-      <c r="O8" s="131"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="179"/>
       <c r="P8" s="18">
         <v>44054</v>
       </c>
@@ -3815,18 +3963,18 @@
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="62">
@@ -3839,8 +3987,8 @@
         <f>SUM(L7:L8)</f>
         <v>517500</v>
       </c>
-      <c r="N9" s="130"/>
-      <c r="O9" s="131"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="179"/>
       <c r="P9" s="18">
         <v>44060</v>
       </c>
@@ -3854,12 +4002,12 @@
         <f t="shared" si="0"/>
         <v>960000</v>
       </c>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N10" s="130"/>
-      <c r="O10" s="131"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="179"/>
       <c r="P10" s="18">
         <v>44068</v>
       </c>
@@ -3873,12 +4021,12 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="130"/>
-      <c r="O11" s="131"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="179"/>
       <c r="P11" s="86">
         <v>44077</v>
       </c>
@@ -3892,12 +4040,12 @@
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="179"/>
       <c r="P12" s="88">
         <v>44085</v>
       </c>
@@ -3911,12 +4059,12 @@
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N13" s="130"/>
-      <c r="O13" s="131"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="179"/>
       <c r="P13" s="51" t="s">
         <v>36</v>
       </c>
@@ -3935,10 +4083,10 @@
       <c r="U13" s="28"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="121" t="s">
+      <c r="N14" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="124" t="s">
+      <c r="O14" s="172" t="s">
         <v>30</v>
       </c>
       <c r="P14" s="48" t="s">
@@ -3954,18 +4102,18 @@
         <f>Q14*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T14" s="127">
+      <c r="T14" s="175">
         <f>300000000-Q14-Q15-Q16</f>
         <v>115000000</v>
       </c>
-      <c r="U14" s="127">
+      <c r="U14" s="175">
         <f>T14*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="122"/>
-      <c r="O15" s="125"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="173"/>
       <c r="P15" s="49">
         <v>44064</v>
       </c>
@@ -3979,12 +4127,12 @@
         <f>Q15*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N16" s="122"/>
-      <c r="O16" s="125"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="173"/>
       <c r="P16" s="82">
         <v>44097</v>
       </c>
@@ -3998,12 +4146,12 @@
         <f>Q16*12%</f>
         <v>600000</v>
       </c>
-      <c r="T16" s="129"/>
-      <c r="U16" s="129"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
     </row>
     <row r="17" spans="14:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N17" s="123"/>
-      <c r="O17" s="126"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="174"/>
       <c r="P17" s="50" t="s">
         <v>40</v>
       </c>
@@ -4022,10 +4170,10 @@
       <c r="U17" s="66"/>
     </row>
     <row r="18" spans="14:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="130" t="s">
+      <c r="N18" s="178" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="178" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="75">
@@ -4041,18 +4189,18 @@
         <f>Q18*R18</f>
         <v>5321160</v>
       </c>
-      <c r="T18" s="169">
+      <c r="T18" s="180">
         <f>107462600-Q18-Q19</f>
         <v>18338600</v>
       </c>
-      <c r="U18" s="171">
+      <c r="U18" s="182">
         <f>T18*12%</f>
         <v>2200632</v>
       </c>
     </row>
     <row r="19" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
       <c r="P19" s="75">
         <v>44132</v>
       </c>
@@ -4066,12 +4214,12 @@
         <f>Q19*R19</f>
         <v>2700000</v>
       </c>
-      <c r="T19" s="170"/>
-      <c r="U19" s="172"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="183"/>
     </row>
     <row r="20" spans="14:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="178"/>
       <c r="P20" s="50" t="s">
         <v>53</v>
       </c>
@@ -4090,10 +4238,10 @@
       <c r="U20" s="67"/>
     </row>
     <row r="21" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="119" t="s">
+      <c r="N21" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="120"/>
+      <c r="O21" s="168"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="14"/>
@@ -4115,40 +4263,40 @@
     </row>
     <row r="24" spans="14:21" x14ac:dyDescent="0.25">
       <c r="Q24" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" s="117">
+        <v>59</v>
+      </c>
+      <c r="S24" s="116">
         <v>31560000</v>
       </c>
     </row>
     <row r="25" spans="14:21" x14ac:dyDescent="0.25">
       <c r="Q25" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="S25" s="117">
+        <v>60</v>
+      </c>
+      <c r="S25" s="116">
         <v>1200000</v>
       </c>
     </row>
     <row r="26" spans="14:21" x14ac:dyDescent="0.25">
       <c r="Q26" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="S26" s="117">
+        <v>61</v>
+      </c>
+      <c r="S26" s="116">
         <v>8021160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N5:N13"/>
-    <mergeCell ref="O5:O13"/>
-    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="U5:U12"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="N14:N17"/>
@@ -4165,16 +4313,16 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N5:N13"/>
+    <mergeCell ref="O5:O13"/>
+    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4184,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="G26" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,13 +4350,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4234,109 +4382,109 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
+      <c r="A3" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="140"/>
-      <c r="L5" s="118" t="s">
+      <c r="K5" s="166"/>
+      <c r="L5" s="165" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="60" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="118"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="175">
+      <c r="A7" s="200">
         <v>1249</v>
       </c>
-      <c r="B7" s="177">
+      <c r="B7" s="202">
         <v>44155</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="175"/>
+      <c r="E7" s="200"/>
       <c r="F7" s="91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="91">
         <v>24</v>
@@ -4358,11 +4506,11 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="201"/>
       <c r="F8" s="91" t="s">
         <v>22</v>
       </c>
@@ -4386,14 +4534,14 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="62">
@@ -4410,14 +4558,14 @@
       <c r="O9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="P9" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="119" t="s">
+      <c r="Q9" s="179"/>
+      <c r="R9" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="120"/>
+      <c r="S9" s="168"/>
       <c r="T9" s="94" t="s">
         <v>26</v>
       </c>
@@ -4426,10 +4574,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N10" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="185" t="s">
+      <c r="N10" s="187" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="187" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="15">
@@ -4445,18 +4593,18 @@
         <f>Q10*12%</f>
         <v>600000</v>
       </c>
-      <c r="T10" s="182">
+      <c r="T10" s="184">
         <f>200000000-Q10-Q11-Q12-Q13-Q14-Q15-Q16-Q17-Q18-Q19</f>
         <v>65000000</v>
       </c>
-      <c r="U10" s="182">
+      <c r="U10" s="184">
         <f>T10*12%</f>
         <v>7800000</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="185"/>
-      <c r="O11" s="185"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
       <c r="P11" s="18">
         <v>44040</v>
       </c>
@@ -4470,12 +4618,12 @@
         <f t="shared" ref="S11:S19" si="2">Q11*12%</f>
         <v>1200000</v>
       </c>
-      <c r="T11" s="183"/>
-      <c r="U11" s="183"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="185"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
       <c r="P12" s="18">
         <v>44049</v>
       </c>
@@ -4489,12 +4637,12 @@
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
       <c r="P13" s="18">
         <v>44054</v>
       </c>
@@ -4508,12 +4656,12 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="T13" s="183"/>
-      <c r="U13" s="183"/>
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N14" s="185"/>
-      <c r="O14" s="185"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
       <c r="P14" s="18">
         <v>44060</v>
       </c>
@@ -4527,12 +4675,12 @@
         <f t="shared" si="2"/>
         <v>960000</v>
       </c>
-      <c r="T14" s="183"/>
-      <c r="U14" s="183"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
       <c r="P15" s="18">
         <v>44068</v>
       </c>
@@ -4546,12 +4694,12 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
       <c r="P16" s="86">
         <v>44077</v>
       </c>
@@ -4565,12 +4713,12 @@
         <f t="shared" si="2"/>
         <v>240000</v>
       </c>
-      <c r="T16" s="183"/>
-      <c r="U16" s="183"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
       <c r="P17" s="88">
         <v>44085</v>
       </c>
@@ -4584,50 +4732,50 @@
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="T17" s="184"/>
-      <c r="U17" s="184"/>
+      <c r="T17" s="186"/>
+      <c r="U17" s="186"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
       <c r="P18" s="96">
         <v>44137</v>
       </c>
       <c r="Q18" s="97">
         <v>7000000</v>
       </c>
-      <c r="R18" s="193">
+      <c r="R18" s="119">
         <v>0.12</v>
       </c>
-      <c r="S18" s="194">
+      <c r="S18" s="120">
         <f t="shared" si="2"/>
         <v>840000</v>
       </c>
-      <c r="T18" s="173" t="s">
-        <v>64</v>
+      <c r="T18" s="197" t="s">
+        <v>63</v>
       </c>
       <c r="U18" s="95"/>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
       <c r="P19" s="96"/>
       <c r="Q19" s="97">
         <v>40000000</v>
       </c>
-      <c r="R19" s="193">
+      <c r="R19" s="119">
         <v>0.12</v>
       </c>
-      <c r="S19" s="194">
+      <c r="S19" s="120">
         <f t="shared" si="2"/>
         <v>4800000</v>
       </c>
-      <c r="T19" s="192"/>
+      <c r="T19" s="198"/>
       <c r="U19" s="95"/>
     </row>
     <row r="20" spans="9:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
       <c r="P20" s="51" t="s">
         <v>36</v>
       </c>
@@ -4642,14 +4790,14 @@
         <f>SUM(S10:S19)</f>
         <v>16200000</v>
       </c>
-      <c r="T20" s="174"/>
+      <c r="T20" s="199"/>
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="179" t="s">
+      <c r="N21" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="179" t="s">
+      <c r="O21" s="194" t="s">
         <v>30</v>
       </c>
       <c r="P21" s="48" t="s">
@@ -4665,18 +4813,18 @@
         <f>Q21*12%</f>
         <v>12000000</v>
       </c>
-      <c r="T21" s="182">
+      <c r="T21" s="184">
         <f>300000000-Q21-Q22-Q23</f>
         <v>115000000</v>
       </c>
-      <c r="U21" s="182">
+      <c r="U21" s="184">
         <f>T21*12%</f>
         <v>13800000</v>
       </c>
     </row>
     <row r="22" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="195"/>
       <c r="P22" s="49">
         <v>44064</v>
       </c>
@@ -4690,12 +4838,12 @@
         <f>Q22*12%</f>
         <v>9600000</v>
       </c>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
     </row>
     <row r="23" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
       <c r="P23" s="82">
         <v>44097</v>
       </c>
@@ -4709,12 +4857,12 @@
         <f>Q23*12%</f>
         <v>600000</v>
       </c>
-      <c r="T23" s="184"/>
-      <c r="U23" s="184"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="186"/>
     </row>
     <row r="24" spans="9:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="196"/>
       <c r="P24" s="50" t="s">
         <v>40</v>
       </c>
@@ -4733,10 +4881,10 @@
       <c r="U24" s="66"/>
     </row>
     <row r="25" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N25" s="185" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="185" t="s">
+      <c r="N25" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="187" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="98">
@@ -4752,18 +4900,18 @@
         <f>Q25*R25</f>
         <v>5321160</v>
       </c>
-      <c r="T25" s="186">
+      <c r="T25" s="188">
         <f>107462600-Q25-Q26-Q27</f>
         <v>8338600</v>
       </c>
-      <c r="U25" s="189">
+      <c r="U25" s="191">
         <f>T25*9%</f>
         <v>750474</v>
       </c>
     </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N26" s="185"/>
-      <c r="O26" s="185"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
       <c r="P26" s="98">
         <v>44132</v>
       </c>
@@ -4777,13 +4925,13 @@
         <f>Q26*R26</f>
         <v>2700000</v>
       </c>
-      <c r="T26" s="187"/>
-      <c r="U26" s="190"/>
+      <c r="T26" s="189"/>
+      <c r="U26" s="192"/>
     </row>
     <row r="27" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I27" s="65"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="185"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
       <c r="P27" s="104">
         <v>44160</v>
       </c>
@@ -4797,12 +4945,12 @@
         <f>Q27*R27</f>
         <v>900000</v>
       </c>
-      <c r="T27" s="188"/>
-      <c r="U27" s="191"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="193"/>
     </row>
     <row r="28" spans="9:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
       <c r="P28" s="50" t="s">
         <v>53</v>
       </c>
@@ -4821,24 +4969,25 @@
       <c r="U28" s="67"/>
     </row>
     <row r="29" spans="9:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N29" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" s="116" t="s">
+      <c r="N29" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" s="118" t="s">
         <v>30</v>
       </c>
       <c r="P29" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="110">
-        <v>200000000</v>
+        <f>200000000-31094000</f>
+        <v>168906000</v>
       </c>
       <c r="R29" s="112">
         <v>0.12</v>
       </c>
       <c r="S29" s="111">
         <f>Q29*R29</f>
-        <v>24000000</v>
+        <v>20268720</v>
       </c>
       <c r="T29" s="113">
         <v>0</v>
@@ -4848,16 +4997,16 @@
       </c>
     </row>
     <row r="30" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="N30" s="119" t="s">
+      <c r="N30" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="120"/>
+      <c r="O30" s="168"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="14"/>
       <c r="S30" s="30">
-        <f>S20+S24+S28</f>
-        <v>47321160</v>
+        <f>S20+S24+S28+S29</f>
+        <v>67589880</v>
       </c>
       <c r="T30" s="115">
         <f>SUM(T10:T28)</f>
@@ -4870,7 +5019,7 @@
     </row>
     <row r="32" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S32" s="65">
         <f>SUM(S10:S15)+SUM(S21:S22)</f>
@@ -4879,7 +5028,7 @@
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S33" s="65">
         <f>S16+S17+S23</f>
@@ -4888,7 +5037,7 @@
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S34" s="65">
         <f>S25+S26</f>
@@ -4897,22 +5046,29 @@
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S35" s="65">
         <f>S27+S29+S18+S19</f>
-        <v>30540000</v>
+        <v>26808720</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="U10:U17"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="O25:O28"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T10:T17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="T18:T20"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="A1:E1"/>
@@ -4929,20 +5085,13 @@
     <mergeCell ref="N10:N20"/>
     <mergeCell ref="O10:O20"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T10:T17"/>
+    <mergeCell ref="U10:U17"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="O25:O28"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4950,130 +5099,805 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H8:I22"/>
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="179"/>
+      <c r="E5" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="168"/>
+      <c r="G5" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="208" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="209">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="187" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15">
+        <v>44040</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5000000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="F6" s="16">
+        <f>D6*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="G6" s="184">
+        <f>200000000-D6-D7-D8-D9-D10-D11-D12-D13-D14-D15-D16</f>
+        <v>58000000</v>
+      </c>
+      <c r="H6" s="184">
+        <f>G6*12%</f>
+        <v>6960000</v>
+      </c>
+      <c r="J6" s="210" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="213">
+        <v>15364000</v>
+      </c>
+      <c r="L6" s="214">
+        <f>SUM(K6:K9)</f>
+        <v>31094000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="187"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="18">
+        <v>44040</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7:F16" si="0">D7*12%</f>
+        <v>1200000</v>
+      </c>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="J7" s="210" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="213">
+        <v>9080000</v>
+      </c>
+      <c r="L7" s="214"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="187"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="18">
+        <v>44049</v>
+      </c>
+      <c r="D8" s="19">
+        <v>30000000</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="J8" s="210" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="213">
+        <v>2000000</v>
+      </c>
+      <c r="L8" s="214"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="187"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="18">
+        <v>44054</v>
+      </c>
+      <c r="D9" s="19">
+        <v>20000000</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>2400000</v>
+      </c>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="J9" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="213">
+        <v>4650000</v>
+      </c>
+      <c r="L9" s="214"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="187"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="18">
+        <v>44060</v>
+      </c>
+      <c r="D10" s="19">
+        <v>8000000</v>
+      </c>
+      <c r="E10" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>960000</v>
+      </c>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="211">
+        <v>168906000</v>
+      </c>
+      <c r="L10" s="212"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="187"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="18">
+        <v>44068</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="E11" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="86">
+        <v>44077</v>
+      </c>
+      <c r="D12" s="83">
+        <v>2000000</v>
+      </c>
+      <c r="E12" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="83">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="187"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="88">
+        <v>44085</v>
+      </c>
+      <c r="D13" s="89">
+        <v>3000000</v>
+      </c>
+      <c r="E13" s="84">
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="89">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="187"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="96">
+        <v>44137</v>
+      </c>
+      <c r="D14" s="97">
+        <v>7000000</v>
+      </c>
+      <c r="E14" s="119">
+        <v>0.12</v>
+      </c>
+      <c r="F14" s="120">
+        <f t="shared" si="0"/>
+        <v>840000</v>
+      </c>
+      <c r="G14" s="197" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="95"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="187"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97">
+        <v>40000000</v>
+      </c>
+      <c r="E15" s="119">
+        <v>0.12</v>
+      </c>
+      <c r="F15" s="120">
+        <f t="shared" si="0"/>
+        <v>4800000</v>
+      </c>
+      <c r="G15" s="198"/>
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="187"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="204">
+        <v>44202</v>
+      </c>
+      <c r="D16" s="205">
+        <v>7000000</v>
+      </c>
+      <c r="E16" s="206">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="207">
+        <f t="shared" si="0"/>
+        <v>840000</v>
+      </c>
+      <c r="G16" s="198"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="187"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="52">
+        <f>SUM(D6:D15)</f>
+        <v>135000000</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="27">
+        <f>SUM(F6:F16)</f>
+        <v>17040000</v>
+      </c>
+      <c r="G17" s="199"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="194" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="16">
+        <v>100000000</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="16">
+        <f>D18*12%</f>
+        <v>12000000</v>
+      </c>
+      <c r="G18" s="184">
+        <f>300000000-D18-D19-D20</f>
+        <v>115000000</v>
+      </c>
+      <c r="H18" s="184">
+        <f>G18*12%</f>
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="195"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="49">
+        <v>44064</v>
+      </c>
+      <c r="D19" s="19">
+        <v>80000000</v>
+      </c>
+      <c r="E19" s="54">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="19">
+        <f>D19*12%</f>
+        <v>9600000</v>
+      </c>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="195"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="82">
+        <v>44097</v>
+      </c>
+      <c r="D20" s="83">
+        <v>5000000</v>
+      </c>
+      <c r="E20" s="84">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="85">
+        <f>D20*12%</f>
+        <v>600000</v>
+      </c>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="196"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="25">
+        <f>SUM(D18:D20)</f>
+        <v>185000000</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="74">
+        <f>SUM(F18:F20)</f>
+        <v>22200000</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="98">
+        <v>44125</v>
+      </c>
+      <c r="D22" s="101">
+        <v>59124000</v>
+      </c>
+      <c r="E22" s="102">
+        <v>0.09</v>
+      </c>
+      <c r="F22" s="99">
+        <f>D22*E22</f>
+        <v>5321160</v>
+      </c>
+      <c r="G22" s="188">
+        <f>107462600-D22-D23-D24</f>
+        <v>8338600</v>
+      </c>
+      <c r="H22" s="191">
+        <f>G22*9%</f>
+        <v>750474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="187"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="98">
+        <v>44132</v>
+      </c>
+      <c r="D23" s="99">
+        <v>30000000</v>
+      </c>
+      <c r="E23" s="103">
+        <v>0.09</v>
+      </c>
+      <c r="F23" s="100">
+        <f>D23*E23</f>
+        <v>2700000</v>
+      </c>
+      <c r="G23" s="189"/>
+      <c r="H23" s="192"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="187"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="104">
+        <v>44160</v>
+      </c>
+      <c r="D24" s="105">
+        <v>10000000</v>
+      </c>
+      <c r="E24" s="106">
+        <v>0.09</v>
+      </c>
+      <c r="F24" s="107">
+        <f>D24*E24</f>
+        <v>900000</v>
+      </c>
+      <c r="G24" s="190"/>
+      <c r="H24" s="193"/>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="187"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="25">
+        <f>D22+D23+D24</f>
+        <v>99124000</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="90">
+        <f>SUM(F22:F24)</f>
+        <v>8921160</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="110">
+        <f>200000000-31094000</f>
+        <v>168906000</v>
+      </c>
+      <c r="E26" s="112">
+        <v>0.12</v>
+      </c>
+      <c r="F26" s="111">
+        <f>D26*E26</f>
+        <v>20268720</v>
+      </c>
+      <c r="G26" s="113">
+        <v>0</v>
+      </c>
+      <c r="H26" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="168"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="30">
+        <f>F17+F21+F25+F26</f>
+        <v>68429880</v>
+      </c>
+      <c r="G27" s="115">
+        <f>SUM(G6:G26)</f>
+        <v>181338600</v>
+      </c>
+      <c r="H27" s="108">
+        <f>SUM(H6:H26)</f>
+        <v>21510474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="65">
+        <f>SUM(F6:F11)+SUM(F18:F19)</f>
+        <v>31560000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="65">
+        <f>F12+F13+F20</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="65">
+        <f>F22+F23</f>
+        <v>8021160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="65">
+        <f>F26+F14+F24+F15</f>
+        <v>26808720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="65">
+        <f>F16</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="G14:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H8:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H9" sqref="H9:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="195" t="s">
+      <c r="H9" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="196" t="s">
+      <c r="I9" s="122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="123" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="197" t="s">
+      <c r="I10" s="124">
+        <v>4782500</v>
+      </c>
+    </row>
+    <row r="11" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="198">
-        <v>4782500</v>
-      </c>
-    </row>
-    <row r="11" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="197" t="s">
+      <c r="I11" s="124">
+        <v>5445000</v>
+      </c>
+    </row>
+    <row r="12" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="198">
-        <v>5445000</v>
-      </c>
-    </row>
-    <row r="12" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="197" t="s">
+      <c r="I12" s="124">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="13" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="198">
-        <v>517500</v>
-      </c>
-    </row>
-    <row r="13" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="197" t="s">
+      <c r="I13" s="124">
+        <v>5522400</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="198">
-        <v>5522400</v>
-      </c>
-    </row>
-    <row r="14" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="199" t="s">
+      <c r="I14" s="126">
+        <v>6702400</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="200">
-        <v>6702400</v>
-      </c>
-    </row>
-    <row r="15" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="199" t="s">
+      <c r="I15" s="126">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="16" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="200">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="16" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="199" t="s">
+      <c r="I16" s="126">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="200">
+      <c r="I17" s="126">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="126">
+        <v>5067180</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="126">
+        <v>6450000</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="124">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="124">
+        <v>8021160</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="124">
+        <v>26808720</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="124">
         <v>2000000</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="199" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="200">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="199" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="200">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="197" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="198">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="197" t="s">
+    <row r="24" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="198">
-        <v>8021160</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="197" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="198">
-        <v>30540000</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="201" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="202">
-        <f>I21+I20+I19-I14-I15-I16-I17-I18</f>
-        <v>3058760</v>
+      <c r="I24" s="128">
+        <f>I22+I21+I20+I23-I14-I15-I16-I17-I18-I19</f>
+        <v>9810300</v>
       </c>
     </row>
   </sheetData>
